--- a/data/coded_segments/md_2_2.xlsx
+++ b/data/coded_segments/md_2_2.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Whiting/Repositories/amr-db/data/coded_segments_rename/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C0164A-0B71-EF45-A681-7295AFFD0885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="498">
   <si>
     <t>Color</t>
   </si>
@@ -89,7 +85,7 @@
     <t>mdualeh</t>
   </si>
   <si>
-    <t>6/18/18 00:07:16</t>
+    <t>6/18/18 00:07:00</t>
   </si>
   <si>
     <t>13898</t>
@@ -104,7 +100,7 @@
     <t>o</t>
   </si>
   <si>
-    <t>6/18/18 00:08:42</t>
+    <t>6/18/18 00:08:00</t>
   </si>
   <si>
     <t>14100</t>
@@ -122,7 +118,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>6/18/18 00:36:17</t>
+    <t>6/18/18 00:36:00</t>
   </si>
   <si>
     <t>Patient:Sex</t>
@@ -135,9 +131,6 @@
   </si>
   <si>
     <t>woman</t>
-  </si>
-  <si>
-    <t>6/18/18 00:36:21</t>
   </si>
   <si>
     <t>Patient:Comorbidities</t>
@@ -153,9 +146,6 @@
 erythematosus</t>
   </si>
   <si>
-    <t>6/18/18 00:36:45</t>
-  </si>
-  <si>
     <t>Event month</t>
   </si>
   <si>
@@ -183,9 +173,6 @@
     <t>2008</t>
   </si>
   <si>
-    <t>6/18/18 00:37:03</t>
-  </si>
-  <si>
     <t>Exclusion: Not first case in country</t>
   </si>
   <si>
@@ -198,7 +185,7 @@
     <t>Successful treatment</t>
   </si>
   <si>
-    <t>6/18/18 01:01:22</t>
+    <t>6/18/18 01:01:00</t>
   </si>
   <si>
     <t>14500</t>
@@ -233,9 +220,6 @@
 pathogens at P</t>
   </si>
   <si>
-    <t>6/18/18 01:02:12</t>
-  </si>
-  <si>
     <t>14616</t>
   </si>
   <si>
@@ -248,7 +232,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>6/18/18 01:15:42</t>
+    <t>6/18/18 01:15:00</t>
   </si>
   <si>
     <t>2: 2085</t>
@@ -260,9 +244,6 @@
     <t>female</t>
   </si>
   <si>
-    <t>6/18/18 01:15:46</t>
-  </si>
-  <si>
     <t>Location:City</t>
   </si>
   <si>
@@ -275,9 +256,6 @@
     <t>Buenaventura</t>
   </si>
   <si>
-    <t>6/18/18 01:15:57</t>
-  </si>
-  <si>
     <t>Location:Country</t>
   </si>
   <si>
@@ -290,7 +268,7 @@
     <t>Colombian</t>
   </si>
   <si>
-    <t>6/18/18 01:16:02</t>
+    <t>6/18/18 01:16:00</t>
   </si>
   <si>
     <t>2: 2516</t>
@@ -303,9 +281,6 @@
 anemia</t>
   </si>
   <si>
-    <t>6/18/18 01:16:20</t>
-  </si>
-  <si>
     <t>Patient:Outcome</t>
   </si>
   <si>
@@ -318,9 +293,6 @@
     <t>death</t>
   </si>
   <si>
-    <t>6/18/18 01:16:42</t>
-  </si>
-  <si>
     <t>Drug Resisted</t>
   </si>
   <si>
@@ -333,7 +305,7 @@
     <t>rifampin</t>
   </si>
   <si>
-    <t>6/18/18 01:17:06</t>
+    <t>6/18/18 01:17:00</t>
   </si>
   <si>
     <t>2: 5131</t>
@@ -345,9 +317,6 @@
     <t>isoniazid</t>
   </si>
   <si>
-    <t>6/18/18 01:17:10</t>
-  </si>
-  <si>
     <t>2: 5142</t>
   </si>
   <si>
@@ -357,9 +326,6 @@
     <t>ethambutol</t>
   </si>
   <si>
-    <t>6/18/18 01:17:13</t>
-  </si>
-  <si>
     <t>2: 5158</t>
   </si>
   <si>
@@ -369,9 +335,6 @@
     <t>streptomycin</t>
   </si>
   <si>
-    <t>6/18/18 01:17:16</t>
-  </si>
-  <si>
     <t>Bacteria:Binomial (genus species)</t>
   </si>
   <si>
@@ -384,9 +347,6 @@
     <t>Mycobacterium tuberculosis</t>
   </si>
   <si>
-    <t>6/18/18 01:17:34</t>
-  </si>
-  <si>
     <t>14705</t>
   </si>
   <si>
@@ -399,7 +359,7 @@
     <t>levels</t>
   </si>
   <si>
-    <t>6/18/18 01:18:19</t>
+    <t>6/18/18 01:18:00</t>
   </si>
   <si>
     <t>15066</t>
@@ -414,9 +374,6 @@
     <t>Emergence</t>
   </si>
   <si>
-    <t>6/18/18 01:18:37</t>
-  </si>
-  <si>
     <t>15329</t>
   </si>
   <si>
@@ -429,7 +386,7 @@
     <t>An Irish outbreak</t>
   </si>
   <si>
-    <t>6/18/18 01:23:34</t>
+    <t>6/18/18 01:23:00</t>
   </si>
   <si>
     <t>15459</t>
@@ -444,9 +401,6 @@
     <t>d on PFGE and MLVA (Adjuste</t>
   </si>
   <si>
-    <t>6/18/18 01:23:42</t>
-  </si>
-  <si>
     <t>15902</t>
   </si>
   <si>
@@ -459,7 +413,7 @@
     <t>51</t>
   </si>
   <si>
-    <t>6/18/18 01:24:17</t>
+    <t>6/18/18 01:24:00</t>
   </si>
   <si>
     <t>1: 2978</t>
@@ -471,9 +425,6 @@
     <t>man</t>
   </si>
   <si>
-    <t>6/18/18 01:24:22</t>
-  </si>
-  <si>
     <t>Patient:Symptoms/Disease</t>
   </si>
   <si>
@@ -486,9 +437,6 @@
     <t xml:space="preserve"> ocular pain</t>
   </si>
   <si>
-    <t>6/18/18 01:24:48</t>
-  </si>
-  <si>
     <t>1: 3063</t>
   </si>
   <si>
@@ -498,9 +446,6 @@
     <t>reduced vision</t>
   </si>
   <si>
-    <t>6/18/18 01:24:52</t>
-  </si>
-  <si>
     <t>2: 675</t>
   </si>
   <si>
@@ -510,7 +455,7 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>6/18/18 01:30:41</t>
+    <t>6/18/18 01:30:00</t>
   </si>
   <si>
     <t>2: 685</t>
@@ -522,9 +467,6 @@
     <t>gentamicin</t>
   </si>
   <si>
-    <t>6/18/18 01:30:44</t>
-  </si>
-  <si>
     <t>2: 697</t>
   </si>
   <si>
@@ -534,9 +476,6 @@
     <t>erythromycin</t>
   </si>
   <si>
-    <t>6/18/18 01:30:48</t>
-  </si>
-  <si>
     <t>2: 711</t>
   </si>
   <si>
@@ -546,9 +485,6 @@
     <t>tobramycin</t>
   </si>
   <si>
-    <t>6/18/18 01:30:50</t>
-  </si>
-  <si>
     <t>2: 723</t>
   </si>
   <si>
@@ -558,9 +494,6 @@
     <t>penicillin</t>
   </si>
   <si>
-    <t>6/18/18 01:30:53</t>
-  </si>
-  <si>
     <t>2: 740</t>
   </si>
   <si>
@@ -568,9 +501,6 @@
   </si>
   <si>
     <t>cefazolin</t>
-  </si>
-  <si>
-    <t>6/18/18 01:30:56</t>
   </si>
   <si>
     <t>16215</t>
@@ -586,7 +516,7 @@
 Resistant Escheric</t>
   </si>
   <si>
-    <t>6/18/18 01:31:11</t>
+    <t>6/18/18 01:31:00</t>
   </si>
   <si>
     <t>16225</t>
@@ -599,9 +529,6 @@
 experien</t>
   </si>
   <si>
-    <t>6/18/18 01:31:31</t>
-  </si>
-  <si>
     <t>16267</t>
   </si>
   <si>
@@ -618,7 +545,7 @@
 Center</t>
   </si>
   <si>
-    <t>6/18/18 01:36:18</t>
+    <t>6/18/18 01:36:00</t>
   </si>
   <si>
     <t>2: 1253</t>
@@ -630,9 +557,6 @@
     <t>Pittsburgh</t>
   </si>
   <si>
-    <t>6/18/18 01:36:24</t>
-  </si>
-  <si>
     <t>Location:State/Province/District</t>
   </si>
   <si>
@@ -645,9 +569,6 @@
     <t>Pennsylvania</t>
   </si>
   <si>
-    <t>6/18/18 01:36:27</t>
-  </si>
-  <si>
     <t>2: 1279</t>
   </si>
   <si>
@@ -657,9 +578,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>6/18/18 01:36:31</t>
-  </si>
-  <si>
     <t>2: 1294</t>
   </si>
   <si>
@@ -669,9 +587,6 @@
     <t xml:space="preserve">A. baumannii </t>
   </si>
   <si>
-    <t>6/18/18 01:36:39</t>
-  </si>
-  <si>
     <t>2: 2842</t>
   </si>
   <si>
@@ -681,7 +596,7 @@
     <t>76</t>
   </si>
   <si>
-    <t>6/18/18 01:37:03</t>
+    <t>6/18/18 01:37:00</t>
   </si>
   <si>
     <t>2: 2854</t>
@@ -690,9 +605,6 @@
     <t>2: 2858</t>
   </si>
   <si>
-    <t>6/18/18 01:37:07</t>
-  </si>
-  <si>
     <t>2: 2878</t>
   </si>
   <si>
@@ -702,9 +614,6 @@
     <t>hypertension</t>
   </si>
   <si>
-    <t>6/18/18 01:37:12</t>
-  </si>
-  <si>
     <t>2: 2896</t>
   </si>
   <si>
@@ -714,9 +623,6 @@
     <t>diabetes</t>
   </si>
   <si>
-    <t>6/18/18 01:37:16</t>
-  </si>
-  <si>
     <t>2: 3792</t>
   </si>
   <si>
@@ -726,9 +632,6 @@
     <t>ampicillin/sulbactam</t>
   </si>
   <si>
-    <t>6/18/18 01:37:38</t>
-  </si>
-  <si>
     <t>2: 3814</t>
   </si>
   <si>
@@ -738,9 +641,6 @@
     <t>cefepime</t>
   </si>
   <si>
-    <t>6/18/18 01:37:41</t>
-  </si>
-  <si>
     <t>2: 3825</t>
   </si>
   <si>
@@ -750,9 +650,6 @@
     <t>ciprofloxacin</t>
   </si>
   <si>
-    <t>6/18/18 01:37:44</t>
-  </si>
-  <si>
     <t>2: 3843</t>
   </si>
   <si>
@@ -762,9 +659,6 @@
     <t>aminoglycosides</t>
   </si>
   <si>
-    <t>6/18/18 01:37:47</t>
-  </si>
-  <si>
     <t>2: 4082</t>
   </si>
   <si>
@@ -774,9 +668,6 @@
     <t>60</t>
   </si>
   <si>
-    <t>6/18/18 01:37:57</t>
-  </si>
-  <si>
     <t>2: 4094</t>
   </si>
   <si>
@@ -801,7 +692,7 @@
     <t>Letters to the Editor</t>
   </si>
   <si>
-    <t>6/18/18 01:39:02</t>
+    <t>6/18/18 01:39:00</t>
   </si>
   <si>
     <t>16802</t>
@@ -816,9 +707,6 @@
     <t>E. coli isolate</t>
   </si>
   <si>
-    <t>6/18/18 01:39:21</t>
-  </si>
-  <si>
     <t>16838</t>
   </si>
   <si>
@@ -828,9 +716,6 @@
     <t>Five-year evaluation</t>
   </si>
   <si>
-    <t>6/18/18 01:39:28</t>
-  </si>
-  <si>
     <t>17068</t>
   </si>
   <si>
@@ -840,9 +725,6 @@
     <t xml:space="preserve"> 61</t>
   </si>
   <si>
-    <t>6/18/18 01:39:39</t>
-  </si>
-  <si>
     <t>1: 3266</t>
   </si>
   <si>
@@ -852,7 +734,7 @@
     <t>S. marcescens</t>
   </si>
   <si>
-    <t>6/18/18 01:40:18</t>
+    <t>6/18/18 01:40:00</t>
   </si>
   <si>
     <t>1: 3247</t>
@@ -864,9 +746,6 @@
     <t>Imipenem</t>
   </si>
   <si>
-    <t>6/18/18 01:40:30</t>
-  </si>
-  <si>
     <t>2: 114</t>
   </si>
   <si>
@@ -876,9 +755,6 @@
     <t>cefoxitin</t>
   </si>
   <si>
-    <t>6/18/18 01:40:52</t>
-  </si>
-  <si>
     <t>17526</t>
   </si>
   <si>
@@ -891,7 +767,7 @@
     <t>Introductio</t>
   </si>
   <si>
-    <t>6/18/18 01:41:48</t>
+    <t>6/18/18 01:41:00</t>
   </si>
   <si>
     <t>18227</t>
@@ -906,9 +782,6 @@
     <t>23</t>
   </si>
   <si>
-    <t>6/18/18 01:41:57</t>
-  </si>
-  <si>
     <t>1: 1483</t>
   </si>
   <si>
@@ -918,7 +791,7 @@
     <t>girl</t>
   </si>
   <si>
-    <t>6/18/18 01:42:02</t>
+    <t>6/18/18 01:42:00</t>
   </si>
   <si>
     <t>1: 392</t>
@@ -931,9 +804,6 @@
 cystic fibrosis: First report in Spain</t>
   </si>
   <si>
-    <t>6/18/18 01:42:17</t>
-  </si>
-  <si>
     <t>18401</t>
   </si>
   <si>
@@ -947,7 +817,7 @@
 Burkholderia pseudomallei infection</t>
   </si>
   <si>
-    <t>6/18/18 09:18:20</t>
+    <t>6/18/18 09:18:00</t>
   </si>
   <si>
     <t>18631</t>
@@ -962,25 +832,19 @@
     <t>46</t>
   </si>
   <si>
-    <t>6/18/18 09:18:44</t>
-  </si>
-  <si>
     <t>1: 1229</t>
   </si>
   <si>
     <t>1: 1231</t>
   </si>
   <si>
-    <t>6/18/18 09:18:48</t>
-  </si>
-  <si>
     <t>1: 279</t>
   </si>
   <si>
     <t>Corynebacterium jeikeium</t>
   </si>
   <si>
-    <t>6/18/18 09:19:22</t>
+    <t>6/18/18 09:19:00</t>
   </si>
   <si>
     <t>1: 234</t>
@@ -992,9 +856,6 @@
     <t>Daptomycin</t>
   </si>
   <si>
-    <t>6/18/18 09:19:34</t>
-  </si>
-  <si>
     <t>1: 721</t>
   </si>
   <si>
@@ -1004,7 +865,7 @@
     <t>Germany2</t>
   </si>
   <si>
-    <t>6/18/18 09:21:04</t>
+    <t>6/18/18 09:21:00</t>
   </si>
   <si>
     <t>Bacteria:Strain</t>
@@ -1019,7 +880,7 @@
     <t>1087</t>
   </si>
   <si>
-    <t>6/18/18 09:22:42</t>
+    <t>6/18/18 09:22:00</t>
   </si>
   <si>
     <t>MIC</t>
@@ -1034,9 +895,6 @@
     <t>_x0005_256 _x0006_g/ml</t>
   </si>
   <si>
-    <t>6/18/18 09:22:55</t>
-  </si>
-  <si>
     <t>2: 827</t>
   </si>
   <si>
@@ -1046,7 +904,7 @@
     <t>died</t>
   </si>
   <si>
-    <t>6/18/18 09:23:19</t>
+    <t>6/18/18 09:23:00</t>
   </si>
   <si>
     <t>19004</t>
@@ -1061,9 +919,6 @@
     <t>Enterococcus mundtii</t>
   </si>
   <si>
-    <t>6/18/18 09:23:34</t>
-  </si>
-  <si>
     <t>1: 2469</t>
   </si>
   <si>
@@ -1073,7 +928,7 @@
     <t>isolates</t>
   </si>
   <si>
-    <t>6/18/18 09:24:01</t>
+    <t>6/18/18 09:24:00</t>
   </si>
   <si>
     <t>19120</t>
@@ -1088,9 +943,6 @@
     <t>The eme</t>
   </si>
   <si>
-    <t>6/18/18 09:24:23</t>
-  </si>
-  <si>
     <t>19653</t>
   </si>
   <si>
@@ -1103,18 +955,12 @@
     <t>26</t>
   </si>
   <si>
-    <t>6/18/18 09:24:38</t>
-  </si>
-  <si>
     <t>2: 178</t>
   </si>
   <si>
     <t>2: 182</t>
   </si>
   <si>
-    <t>6/18/18 09:24:42</t>
-  </si>
-  <si>
     <t>2: 237</t>
   </si>
   <si>
@@ -1124,9 +970,6 @@
     <t>Korea university Guro hospital</t>
   </si>
   <si>
-    <t>6/18/18 09:24:54</t>
-  </si>
-  <si>
     <t>2: 270</t>
   </si>
   <si>
@@ -1136,9 +979,6 @@
     <t>Seoul</t>
   </si>
   <si>
-    <t>6/18/18 09:24:58</t>
-  </si>
-  <si>
     <t>2: 277</t>
   </si>
   <si>
@@ -1148,7 +988,7 @@
     <t>Republic of Korea</t>
   </si>
   <si>
-    <t>6/18/18 09:25:02</t>
+    <t>6/18/18 09:25:00</t>
   </si>
   <si>
     <t>2: 317</t>
@@ -1160,9 +1000,6 @@
     <t>fever</t>
   </si>
   <si>
-    <t>6/18/18 09:25:09</t>
-  </si>
-  <si>
     <t>2: 328</t>
   </si>
   <si>
@@ -1170,9 +1007,6 @@
   </si>
   <si>
     <t>abdominal pain</t>
-  </si>
-  <si>
-    <t>6/18/18 09:25:15</t>
   </si>
   <si>
     <t>1: 120</t>
@@ -1185,7 +1019,7 @@
 immunocompetent pregnant woman</t>
   </si>
   <si>
-    <t>6/18/18 09:27:38</t>
+    <t>6/18/18 09:27:00</t>
   </si>
   <si>
     <t>20046</t>
@@ -1201,7 +1035,7 @@
 Enterobacteriaceae: emergence a</t>
   </si>
   <si>
-    <t>6/18/18 09:28:01</t>
+    <t>6/18/18 09:28:00</t>
   </si>
   <si>
     <t>20146</t>
@@ -1213,7 +1047,7 @@
     <t>Community-ons</t>
   </si>
   <si>
-    <t>6/18/18 09:34:06</t>
+    <t>6/18/18 09:34:00</t>
   </si>
   <si>
     <t>20339</t>
@@ -1228,16 +1062,13 @@
     <t>52</t>
   </si>
   <si>
-    <t>6/18/18 09:34:36</t>
-  </si>
-  <si>
     <t>1: 1461</t>
   </si>
   <si>
     <t>1: 1465</t>
   </si>
   <si>
-    <t>6/18/18 09:35:03</t>
+    <t>6/18/18 09:35:00</t>
   </si>
   <si>
     <t>1: 1596</t>
@@ -1249,18 +1080,12 @@
     <t>April</t>
   </si>
   <si>
-    <t>6/18/18 09:35:14</t>
-  </si>
-  <si>
     <t>1: 1602</t>
   </si>
   <si>
     <t>1: 1605</t>
   </si>
   <si>
-    <t>6/18/18 09:35:17</t>
-  </si>
-  <si>
     <t>1: 1808</t>
   </si>
   <si>
@@ -1270,9 +1095,6 @@
     <t>paraplegia</t>
   </si>
   <si>
-    <t>6/18/18 09:35:39</t>
-  </si>
-  <si>
     <t>1: 1823</t>
   </si>
   <si>
@@ -1280,9 +1102,6 @@
   </si>
   <si>
     <t>neurogenic bladder</t>
-  </si>
-  <si>
-    <t>6/18/18 09:35:43</t>
   </si>
   <si>
     <t>20713</t>
@@ -1311,7 +1130,7 @@
     <t xml:space="preserve"> July</t>
   </si>
   <si>
-    <t>6/18/18 09:44:33</t>
+    <t>6/18/18 09:44:00</t>
   </si>
   <si>
     <t>1: 1492</t>
@@ -1323,16 +1142,13 @@
     <t>2010</t>
   </si>
   <si>
-    <t>6/18/18 09:44:36</t>
-  </si>
-  <si>
     <t>1: 1521</t>
   </si>
   <si>
     <t>1: 1523</t>
   </si>
   <si>
-    <t>6/18/18 09:45:48</t>
+    <t>6/18/18 09:45:00</t>
   </si>
   <si>
     <t>1: 1532</t>
@@ -1343,9 +1159,6 @@
   <si>
     <t>early  
 20s</t>
-  </si>
-  <si>
-    <t>6/18/18 09:45:56</t>
   </si>
   <si>
     <t>1: 50</t>
@@ -1359,7 +1172,7 @@
 2010</t>
   </si>
   <si>
-    <t>6/18/18 09:53:55</t>
+    <t>6/18/18 09:53:00</t>
   </si>
   <si>
     <t>21988</t>
@@ -1377,7 +1190,7 @@
 method</t>
   </si>
   <si>
-    <t>6/18/18 09:55:09</t>
+    <t>6/18/18 09:55:00</t>
   </si>
   <si>
     <t>22167</t>
@@ -1392,9 +1205,6 @@
     <t xml:space="preserve"> 51</t>
   </si>
   <si>
-    <t>6/18/18 09:55:35</t>
-  </si>
-  <si>
     <t>3: 1469</t>
   </si>
   <si>
@@ -1404,9 +1214,6 @@
     <t>male</t>
   </si>
   <si>
-    <t>6/18/18 09:55:38</t>
-  </si>
-  <si>
     <t>3: 1478</t>
   </si>
   <si>
@@ -1416,9 +1223,6 @@
     <t xml:space="preserve"> watery diarrhea</t>
   </si>
   <si>
-    <t>6/18/18 09:55:44</t>
-  </si>
-  <si>
     <t>3: 1499</t>
   </si>
   <si>
@@ -1428,9 +1232,6 @@
     <t xml:space="preserve"> liver dysfunction</t>
   </si>
   <si>
-    <t>6/18/18 09:55:50</t>
-  </si>
-  <si>
     <t>3: 1595</t>
   </si>
   <si>
@@ -1440,9 +1241,6 @@
     <t>Beijing</t>
   </si>
   <si>
-    <t>6/18/18 09:55:55</t>
-  </si>
-  <si>
     <t>3: 1604</t>
   </si>
   <si>
@@ -1452,9 +1250,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>6/18/18 09:55:59</t>
-  </si>
-  <si>
     <t>3: 1576</t>
   </si>
   <si>
@@ -1464,7 +1259,7 @@
     <t>public hospital</t>
   </si>
   <si>
-    <t>6/18/18 09:56:04</t>
+    <t>6/18/18 09:56:00</t>
   </si>
   <si>
     <t>3: 1797</t>
@@ -1476,9 +1271,6 @@
     <t xml:space="preserve">S. boydii </t>
   </si>
   <si>
-    <t>6/18/18 09:56:16</t>
-  </si>
-  <si>
     <t>3: 2301</t>
   </si>
   <si>
@@ -1488,9 +1280,6 @@
     <t>strain 2246</t>
   </si>
   <si>
-    <t>6/18/18 09:56:32</t>
-  </si>
-  <si>
     <t>3: 2532</t>
   </si>
   <si>
@@ -1500,18 +1289,12 @@
     <t>piperacillin</t>
   </si>
   <si>
-    <t>6/18/18 09:56:38</t>
-  </si>
-  <si>
     <t>3: 2546</t>
   </si>
   <si>
     <t>3: 2554</t>
   </si>
   <si>
-    <t>6/18/18 09:56:41</t>
-  </si>
-  <si>
     <t>3: 2558</t>
   </si>
   <si>
@@ -1521,9 +1304,6 @@
     <t>cefuroxime</t>
   </si>
   <si>
-    <t>6/18/18 09:56:44</t>
-  </si>
-  <si>
     <t>3: 2574</t>
   </si>
   <si>
@@ -1533,18 +1313,12 @@
     <t>ceftriaxone</t>
   </si>
   <si>
-    <t>6/18/18 09:56:47</t>
-  </si>
-  <si>
     <t>3: 2777</t>
   </si>
   <si>
     <t>3: 2789</t>
   </si>
   <si>
-    <t>6/18/18 09:56:58</t>
-  </si>
-  <si>
     <t>3: 2796</t>
   </si>
   <si>
@@ -1554,7 +1328,7 @@
     <t>levofloxacin</t>
   </si>
   <si>
-    <t>6/18/18 09:57:01</t>
+    <t>6/18/18 09:57:00</t>
   </si>
   <si>
     <t>22707</t>
@@ -1567,7 +1341,7 @@
 producing Klebsiella pneumoniae in Ireland</t>
   </si>
   <si>
-    <t>6/18/18 11:23:24</t>
+    <t>6/18/18 11:23:00</t>
   </si>
   <si>
     <t>23427</t>
@@ -1597,9 +1371,6 @@
 Mycobac</t>
   </si>
   <si>
-    <t>6/18/18 11:24:20</t>
-  </si>
-  <si>
     <t>22184</t>
   </si>
   <si>
@@ -1612,19 +1383,167 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>6/18/18 11:35:08</t>
+    <t>6/18/18 11:35:00</t>
   </si>
   <si>
     <t>Carbapenem re</t>
   </si>
   <si>
-    <t>6/18/18 11:36:04</t>
+    <t>6/18/18 11:36:00</t>
+  </si>
+  <si>
+    <t>1: 2512</t>
+  </si>
+  <si>
+    <t>1: 2518</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>10/29/18 11:59:00</t>
+  </si>
+  <si>
+    <t>1: 3706</t>
+  </si>
+  <si>
+    <t>1: 3710</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>10/29/18 12:26:00</t>
+  </si>
+  <si>
+    <t>2: 2356</t>
+  </si>
+  <si>
+    <t>2: 2365</t>
+  </si>
+  <si>
+    <t>ampicillin</t>
+  </si>
+  <si>
+    <t>10/30/18 15:55:00</t>
+  </si>
+  <si>
+    <t>2: 2382</t>
+  </si>
+  <si>
+    <t>2: 2390</t>
+  </si>
+  <si>
+    <t>2: 2410</t>
+  </si>
+  <si>
+    <t>2: 2418</t>
+  </si>
+  <si>
+    <t>cefotetan</t>
+  </si>
+  <si>
+    <t>2: 2437</t>
+  </si>
+  <si>
+    <t>2: 2450</t>
+  </si>
+  <si>
+    <t>clindamy- 
+cin</t>
+  </si>
+  <si>
+    <t>2: 2469</t>
+  </si>
+  <si>
+    <t>2: 2476</t>
+  </si>
+  <si>
+    <t>imipenem</t>
+  </si>
+  <si>
+    <t>2: 2498</t>
+  </si>
+  <si>
+    <t>2: 2509</t>
+  </si>
+  <si>
+    <t>moxifloxacin</t>
+  </si>
+  <si>
+    <t>10/30/18 15:56:00</t>
+  </si>
+  <si>
+    <t>2: 2517</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2: 2483</t>
+  </si>
+  <si>
+    <t>2: 2484</t>
+  </si>
+  <si>
+    <t>2: 2456</t>
+  </si>
+  <si>
+    <t>2: 2459</t>
+  </si>
+  <si>
+    <t>&gt;128</t>
+  </si>
+  <si>
+    <t>2: 2425</t>
+  </si>
+  <si>
+    <t>2: 2427</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>2: 2372</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2: 2397</t>
+  </si>
+  <si>
+    <t>2: 2400</t>
+  </si>
+  <si>
+    <t>10/30/18 15:57:00</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1774,10 +1693,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1800,7 +1722,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1812,7 +1734,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1829,9 +1751,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1859,14 +1781,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1894,6 +1833,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2045,8 +2001,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2134,7 +2090,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="4">
-        <v>4.7708297836087925E-2</v>
+        <v>4.7708E-2</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>20</v>
@@ -2175,7 +2131,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="4">
-        <v>2.4624476729869491E-2</v>
+        <v>2.4624E-2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>20</v>
@@ -2216,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="4">
-        <v>1.4655235582911996E-2</v>
+        <v>1.4655E-2</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>20</v>
@@ -2257,16 +2213,16 @@
         <v>5</v>
       </c>
       <c r="K5" s="4">
-        <v>3.6638088957279991E-2</v>
+        <v>3.6637999999999997E-2</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2280,31 +2236,31 @@
         <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="J6" s="3">
         <v>28</v>
       </c>
       <c r="K6" s="4">
-        <v>0.20517329816076793</v>
+        <v>0.20517299999999999</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2321,31 +2277,31 @@
         <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="J7" s="3">
         <v>8</v>
       </c>
       <c r="K7" s="4">
-        <v>5.8620942331647982E-2</v>
+        <v>5.8620999999999999E-2</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2362,31 +2318,31 @@
         <v>27</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="J8" s="3">
         <v>4</v>
       </c>
       <c r="K8" s="4">
-        <v>2.9310471165823991E-2</v>
+        <v>2.9309999999999999E-2</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2403,31 +2359,31 @@
         <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="J9" s="3">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.14655199999999999</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="3">
-        <v>20</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0.14655235582911996</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2441,37 +2397,37 @@
         <v>14</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="J10" s="3">
         <v>18</v>
       </c>
       <c r="K10" s="4">
-        <v>7.180755575058842E-2</v>
+        <v>7.1807999999999997E-2</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2482,34 +2438,34 @@
         <v>14</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3">
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="3">
         <v>101</v>
       </c>
       <c r="K11" s="4">
-        <v>0.29288945597958471</v>
+        <v>0.29288900000000001</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2523,34 +2479,34 @@
         <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J12" s="3">
         <v>2</v>
       </c>
       <c r="K12" s="4">
-        <v>8.8362640275691448E-3</v>
+        <v>8.8360000000000001E-3</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2564,34 +2520,34 @@
         <v>14</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="J13" s="3">
         <v>6</v>
       </c>
       <c r="K13" s="4">
-        <v>2.6508792082707431E-2</v>
+        <v>2.6509000000000001E-2</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2605,34 +2561,34 @@
         <v>14</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J14" s="3">
         <v>12</v>
       </c>
       <c r="K14" s="4">
-        <v>5.3017584165414862E-2</v>
+        <v>5.3018000000000003E-2</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2646,37 +2602,37 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J15" s="3">
         <v>9</v>
       </c>
       <c r="K15" s="4">
-        <v>3.9763188124061148E-2</v>
+        <v>3.9763E-2</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2687,34 +2643,34 @@
         <v>14</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J16" s="3">
         <v>20</v>
       </c>
       <c r="K16" s="4">
-        <v>8.8362640275691434E-2</v>
+        <v>8.8362999999999997E-2</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2728,34 +2684,34 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="J17" s="3">
         <v>5</v>
       </c>
       <c r="K17" s="4">
-        <v>2.2090660068922859E-2</v>
+        <v>2.2091E-2</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2769,34 +2725,34 @@
         <v>14</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J18" s="3">
         <v>8</v>
       </c>
       <c r="K18" s="4">
-        <v>3.5345056110276579E-2</v>
+        <v>3.5345000000000001E-2</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2810,34 +2766,34 @@
         <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J19" s="3">
         <v>9</v>
       </c>
       <c r="K19" s="4">
-        <v>3.9763188124061148E-2</v>
+        <v>3.9763E-2</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2851,34 +2807,34 @@
         <v>14</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="G20" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J20" s="3">
         <v>10</v>
       </c>
       <c r="K20" s="4">
-        <v>4.4181320137845717E-2</v>
+        <v>4.4180999999999998E-2</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2892,34 +2848,34 @@
         <v>14</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="J21" s="3">
         <v>12</v>
       </c>
       <c r="K21" s="4">
-        <v>5.3017584165414862E-2</v>
+        <v>5.3018000000000003E-2</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2933,34 +2889,34 @@
         <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="J22" s="3">
         <v>26</v>
       </c>
       <c r="K22" s="4">
-        <v>0.11487143235839888</v>
+        <v>0.114871</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -2974,34 +2930,34 @@
         <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J23" s="3">
         <v>6</v>
       </c>
       <c r="K23" s="4">
-        <v>3.9042165538781884E-2</v>
+        <v>3.9042E-2</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3015,34 +2971,34 @@
         <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J24" s="3">
         <v>9</v>
       </c>
       <c r="K24" s="4">
-        <v>3.1019507823809193E-2</v>
+        <v>3.1019999999999999E-2</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3056,34 +3012,34 @@
         <v>14</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="H25" s="3">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J25" s="3">
         <v>17</v>
       </c>
       <c r="K25" s="4">
-        <v>5.0392767155772941E-2</v>
+        <v>5.0393E-2</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3097,34 +3053,34 @@
         <v>14</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="J26" s="3">
         <v>27</v>
       </c>
       <c r="K26" s="4">
-        <v>0.4288437102922491</v>
+        <v>0.428844</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3138,34 +3094,34 @@
         <v>14</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="J27" s="3">
         <v>2</v>
       </c>
       <c r="K27" s="4">
-        <v>1.3634194559956372E-2</v>
+        <v>1.3634E-2</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3179,34 +3135,34 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="H28" s="3">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J28" s="3">
         <v>3</v>
       </c>
       <c r="K28" s="4">
-        <v>2.0451291839934556E-2</v>
+        <v>2.0451E-2</v>
       </c>
       <c r="L28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3220,34 +3176,34 @@
         <v>14</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="J29" s="3">
         <v>11</v>
       </c>
       <c r="K29" s="4">
-        <v>7.4988070079760036E-2</v>
+        <v>7.4987999999999999E-2</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3261,34 +3217,34 @@
         <v>14</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="J30" s="3">
         <v>14</v>
       </c>
       <c r="K30" s="4">
-        <v>9.5439361919694599E-2</v>
+        <v>9.5438999999999996E-2</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3302,34 +3258,34 @@
         <v>14</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="J31" s="3">
         <v>8</v>
       </c>
       <c r="K31" s="4">
-        <v>5.4536778239825487E-2</v>
+        <v>5.4537000000000002E-2</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3343,34 +3299,34 @@
         <v>14</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="J32" s="3">
         <v>10</v>
       </c>
       <c r="K32" s="4">
-        <v>6.8170972799781862E-2</v>
+        <v>6.8170999999999995E-2</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3384,34 +3340,34 @@
         <v>14</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J33" s="3">
         <v>12</v>
       </c>
       <c r="K33" s="4">
-        <v>8.1805167359738223E-2</v>
+        <v>8.1805000000000003E-2</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3425,34 +3381,34 @@
         <v>14</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="H34" s="3">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="J34" s="3">
         <v>10</v>
       </c>
       <c r="K34" s="4">
-        <v>6.8170972799781862E-2</v>
+        <v>6.8170999999999995E-2</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3466,34 +3422,34 @@
         <v>14</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="J35" s="3">
         <v>10</v>
       </c>
       <c r="K35" s="4">
-        <v>6.8170972799781862E-2</v>
+        <v>6.8170999999999995E-2</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3507,37 +3463,37 @@
         <v>14</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="H36" s="3">
         <v>0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J36" s="3">
         <v>9</v>
       </c>
       <c r="K36" s="4">
-        <v>6.1353875519803668E-2</v>
+        <v>6.1353999999999999E-2</v>
       </c>
       <c r="L36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -3548,37 +3504,37 @@
         <v>14</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="H37" s="3">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="J37" s="3">
         <v>44</v>
       </c>
       <c r="K37" s="4">
-        <v>0.28554740735933548</v>
+        <v>0.285547</v>
       </c>
       <c r="L37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -3589,37 +3545,37 @@
         <v>14</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="H38" s="3">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="J38" s="3">
         <v>54</v>
       </c>
       <c r="K38" s="4">
-        <v>0.11510423327791278</v>
+        <v>0.115104</v>
       </c>
       <c r="L38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -3630,34 +3586,34 @@
         <v>14</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="H39" s="3">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="J39" s="3">
         <v>40</v>
       </c>
       <c r="K39" s="4">
-        <v>0.18960041712091766</v>
+        <v>0.18959999999999999</v>
       </c>
       <c r="L39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3671,34 +3627,34 @@
         <v>14</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="H40" s="3">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="J40" s="3">
         <v>10</v>
       </c>
       <c r="K40" s="4">
-        <v>4.7400104280229415E-2</v>
+        <v>4.7399999999999998E-2</v>
       </c>
       <c r="L40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3712,34 +3668,34 @@
         <v>14</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="J41" s="3">
         <v>12</v>
       </c>
       <c r="K41" s="4">
-        <v>5.6880125136275293E-2</v>
+        <v>5.688E-2</v>
       </c>
       <c r="L41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3753,34 +3709,34 @@
         <v>14</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="J42" s="3">
         <v>3</v>
       </c>
       <c r="K42" s="4">
-        <v>1.4220031284068823E-2</v>
+        <v>1.422E-2</v>
       </c>
       <c r="L42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3794,34 +3750,34 @@
         <v>14</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="J43" s="3">
         <v>12</v>
       </c>
       <c r="K43" s="4">
-        <v>5.6880125136275293E-2</v>
+        <v>5.688E-2</v>
       </c>
       <c r="L43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3835,34 +3791,34 @@
         <v>14</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="J44" s="3">
         <v>2</v>
       </c>
       <c r="K44" s="4">
-        <v>9.4800208560458839E-3</v>
+        <v>9.4800000000000006E-3</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3876,16 +3832,16 @@
         <v>14</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3897,13 +3853,13 @@
         <v>5</v>
       </c>
       <c r="K45" s="4">
-        <v>2.3700052140114707E-2</v>
+        <v>2.3699999999999999E-2</v>
       </c>
       <c r="L45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3917,34 +3873,34 @@
         <v>14</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="J46" s="3">
         <v>12</v>
       </c>
       <c r="K46" s="4">
-        <v>5.6880125136275293E-2</v>
+        <v>5.688E-2</v>
       </c>
       <c r="L46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3958,34 +3914,34 @@
         <v>14</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="H47" s="3">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="J47" s="3">
         <v>8</v>
       </c>
       <c r="K47" s="4">
-        <v>3.7920083424183536E-2</v>
+        <v>3.7920000000000002E-2</v>
       </c>
       <c r="L47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>227</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -3999,34 +3955,34 @@
         <v>14</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>20</v>
       </c>
       <c r="K48" s="4">
-        <v>9.4800208560458829E-2</v>
+        <v>9.4799999999999995E-2</v>
       </c>
       <c r="L48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4040,34 +3996,34 @@
         <v>14</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="H49" s="3">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="J49" s="3">
         <v>8</v>
       </c>
       <c r="K49" s="4">
-        <v>3.7920083424183536E-2</v>
+        <v>3.7920000000000002E-2</v>
       </c>
       <c r="L49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4081,34 +4037,34 @@
         <v>14</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>237</v>
+        <v>205</v>
       </c>
       <c r="H50" s="3">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="J50" s="3">
         <v>13</v>
       </c>
       <c r="K50" s="4">
-        <v>6.1620135564298247E-2</v>
+        <v>6.1620000000000001E-2</v>
       </c>
       <c r="L50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4122,34 +4078,34 @@
         <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="H51" s="3">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>242</v>
+        <v>209</v>
       </c>
       <c r="J51" s="3">
         <v>15</v>
       </c>
       <c r="K51" s="4">
-        <v>7.1100156420344132E-2</v>
+        <v>7.1099999999999997E-2</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4163,34 +4119,34 @@
         <v>14</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="J52" s="3">
         <v>2</v>
       </c>
       <c r="K52" s="4">
-        <v>9.4800208560458839E-3</v>
+        <v>9.4800000000000006E-3</v>
       </c>
       <c r="L52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4204,34 +4160,34 @@
         <v>14</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="H53" s="3">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J53" s="3">
         <v>3</v>
       </c>
       <c r="K53" s="4">
-        <v>1.4220031284068823E-2</v>
+        <v>1.422E-2</v>
       </c>
       <c r="L53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4245,34 +4201,34 @@
         <v>14</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="J54" s="3">
         <v>21</v>
       </c>
       <c r="K54" s="4">
-        <v>0.37141846480367879</v>
+        <v>0.37141800000000003</v>
       </c>
       <c r="L54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4286,34 +4242,34 @@
         <v>14</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="H55" s="3">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="J55" s="3">
         <v>15</v>
       </c>
       <c r="K55" s="4">
-        <v>6.994637444625787E-2</v>
+        <v>6.9945999999999994E-2</v>
       </c>
       <c r="L55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4327,7 +4283,7 @@
         <v>14</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>16</v>
@@ -4336,25 +4292,25 @@
         <v>17</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="H56" s="3">
         <v>0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="J56" s="3">
         <v>20</v>
       </c>
       <c r="K56" s="4">
-        <v>7.1050481367011267E-2</v>
+        <v>7.1050000000000002E-2</v>
       </c>
       <c r="L56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4368,34 +4324,34 @@
         <v>14</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="J57" s="3">
         <v>2</v>
       </c>
       <c r="K57" s="4">
-        <v>1.3083867591259978E-2</v>
+        <v>1.3084E-2</v>
       </c>
       <c r="L57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4409,34 +4365,34 @@
         <v>14</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>271</v>
+        <v>233</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="J58" s="3">
         <v>13</v>
       </c>
       <c r="K58" s="4">
-        <v>8.5045139343189857E-2</v>
+        <v>8.5044999999999996E-2</v>
       </c>
       <c r="L58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4450,34 +4406,34 @@
         <v>14</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="J59" s="3">
         <v>8</v>
       </c>
       <c r="K59" s="4">
-        <v>5.233547036503991E-2</v>
+        <v>5.2335E-2</v>
       </c>
       <c r="L59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4491,34 +4447,34 @@
         <v>14</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="J60" s="3">
         <v>9</v>
       </c>
       <c r="K60" s="4">
-        <v>5.8877404160669888E-2</v>
+        <v>5.8876999999999999E-2</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4532,34 +4488,34 @@
         <v>14</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="J61" s="3">
         <v>11</v>
       </c>
       <c r="K61" s="4">
-        <v>5.5676469099559651E-2</v>
+        <v>5.5676000000000003E-2</v>
       </c>
       <c r="L61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4573,34 +4529,34 @@
         <v>14</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="J62" s="3">
         <v>2</v>
       </c>
       <c r="K62" s="4">
-        <v>2.581311306143521E-2</v>
+        <v>2.5812999999999999E-2</v>
       </c>
       <c r="L62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>291</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4614,37 +4570,37 @@
         <v>14</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="H63" s="3">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="J63" s="3">
         <v>4</v>
       </c>
       <c r="K63" s="4">
-        <v>5.1626226122870419E-2</v>
+        <v>5.1625999999999998E-2</v>
       </c>
       <c r="L63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -4655,37 +4611,37 @@
         <v>14</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="H64" s="3">
         <v>0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="J64" s="3">
         <v>100</v>
       </c>
       <c r="K64" s="4">
-        <v>1.2906556530717606</v>
+        <v>1.290656</v>
       </c>
       <c r="L64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -4696,34 +4652,34 @@
         <v>14</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="H65" s="3">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="J65" s="3">
         <v>86</v>
       </c>
       <c r="K65" s="4">
-        <v>0.42897047086991219</v>
+        <v>0.42897000000000002</v>
       </c>
       <c r="L65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4737,34 +4693,34 @@
         <v>14</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="J66" s="3">
         <v>2</v>
       </c>
       <c r="K66" s="4">
-        <v>1.1721268241223701E-2</v>
+        <v>1.1721000000000001E-2</v>
       </c>
       <c r="L66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4778,34 +4734,34 @@
         <v>14</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="H67" s="3">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J67" s="3">
         <v>3</v>
       </c>
       <c r="K67" s="4">
-        <v>1.7581902361835551E-2</v>
+        <v>1.7582E-2</v>
       </c>
       <c r="L67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>312</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4819,34 +4775,34 @@
         <v>14</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="H68" s="3">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="J68" s="3">
         <v>24</v>
       </c>
       <c r="K68" s="4">
-        <v>0.14065521889468441</v>
+        <v>0.140655</v>
       </c>
       <c r="L68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4860,34 +4816,34 @@
         <v>14</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>317</v>
+        <v>273</v>
       </c>
       <c r="H69" s="3">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>318</v>
+        <v>274</v>
       </c>
       <c r="J69" s="3">
         <v>10</v>
       </c>
       <c r="K69" s="4">
-        <v>5.8606341206118504E-2</v>
+        <v>5.8605999999999998E-2</v>
       </c>
       <c r="L69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4901,34 +4857,34 @@
         <v>14</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="J70" s="3">
         <v>8</v>
       </c>
       <c r="K70" s="4">
-        <v>4.6885072964894803E-2</v>
+        <v>4.6885000000000003E-2</v>
       </c>
       <c r="L70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4942,34 +4898,34 @@
         <v>14</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="H71" s="3">
         <v>0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="J71" s="3">
         <v>4</v>
       </c>
       <c r="K71" s="4">
-        <v>2.3442536482447401E-2</v>
+        <v>2.3442999999999999E-2</v>
       </c>
       <c r="L71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -4983,34 +4939,34 @@
         <v>14</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="H72" s="3">
         <v>0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="J72" s="3">
         <v>10</v>
       </c>
       <c r="K72" s="4">
-        <v>5.8606341206118504E-2</v>
+        <v>5.8605999999999998E-2</v>
       </c>
       <c r="L72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5024,34 +4980,34 @@
         <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="H73" s="3">
         <v>0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="J73" s="3">
         <v>4</v>
       </c>
       <c r="K73" s="4">
-        <v>2.3442536482447401E-2</v>
+        <v>2.3442999999999999E-2</v>
       </c>
       <c r="L73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5065,34 +5021,34 @@
         <v>14</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="H74" s="3">
         <v>0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="J74" s="3">
         <v>20</v>
       </c>
       <c r="K74" s="4">
-        <v>0.21860312602470217</v>
+        <v>0.21860299999999999</v>
       </c>
       <c r="L74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5106,34 +5062,34 @@
         <v>14</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>344</v>
+        <v>297</v>
       </c>
       <c r="H75" s="3">
         <v>0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="J75" s="3">
         <v>8</v>
       </c>
       <c r="K75" s="4">
-        <v>8.7441250409880864E-2</v>
+        <v>8.7441000000000005E-2</v>
       </c>
       <c r="L75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5147,34 +5103,34 @@
         <v>14</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>347</v>
+        <v>300</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="J76" s="3">
         <v>7</v>
       </c>
       <c r="K76" s="4">
-        <v>2.6430054747970548E-2</v>
+        <v>2.6429999999999999E-2</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>351</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5188,34 +5144,34 @@
         <v>14</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="H77" s="3">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="J77" s="3">
         <v>2</v>
       </c>
       <c r="K77" s="4">
-        <v>1.0239606799098914E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5229,16 +5185,16 @@
         <v>14</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>357</v>
+        <v>308</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="H78" s="3">
         <v>0</v>
@@ -5250,13 +5206,13 @@
         <v>5</v>
       </c>
       <c r="K78" s="4">
-        <v>2.5599016997747283E-2</v>
+        <v>2.5599E-2</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5270,34 +5226,34 @@
         <v>14</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>361</v>
+        <v>311</v>
       </c>
       <c r="H79" s="3">
         <v>0</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="J79" s="3">
         <v>30</v>
       </c>
       <c r="K79" s="4">
-        <v>0.15359410198648374</v>
+        <v>0.15359400000000001</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>363</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5311,34 +5267,34 @@
         <v>14</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="H80" s="3">
         <v>0</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>366</v>
+        <v>315</v>
       </c>
       <c r="J80" s="3">
         <v>5</v>
       </c>
       <c r="K80" s="4">
-        <v>2.5599016997747283E-2</v>
+        <v>2.5599E-2</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5352,34 +5308,34 @@
         <v>14</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>370</v>
+        <v>318</v>
       </c>
       <c r="J81" s="3">
         <v>17</v>
       </c>
       <c r="K81" s="4">
-        <v>8.7036657792340766E-2</v>
+        <v>8.7037000000000003E-2</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>371</v>
+        <v>319</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5393,34 +5349,34 @@
         <v>14</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>372</v>
+        <v>320</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>373</v>
+        <v>321</v>
       </c>
       <c r="H82" s="3">
         <v>0</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="J82" s="3">
         <v>5</v>
       </c>
       <c r="K82" s="4">
-        <v>2.5599016997747283E-2</v>
+        <v>2.5599E-2</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5434,37 +5390,37 @@
         <v>14</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="J83" s="3">
         <v>14</v>
       </c>
       <c r="K83" s="4">
-        <v>7.16772475936924E-2</v>
+        <v>7.1677000000000005E-2</v>
       </c>
       <c r="L83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>13</v>
       </c>
@@ -5475,37 +5431,37 @@
         <v>14</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="H84" s="3">
         <v>0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="J84" s="3">
         <v>88</v>
       </c>
       <c r="K84" s="4">
-        <v>0.45054269916035222</v>
+        <v>0.45054300000000003</v>
       </c>
       <c r="L84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>13</v>
       </c>
@@ -5516,34 +5472,34 @@
         <v>14</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="H85" s="3">
         <v>0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="J85" s="3">
         <v>77</v>
       </c>
       <c r="K85" s="4">
-        <v>0.1791822772438508</v>
+        <v>0.17918200000000001</v>
       </c>
       <c r="L85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5557,34 +5513,34 @@
         <v>14</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="H86" s="3">
         <v>0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="J86" s="3">
         <v>13</v>
       </c>
       <c r="K86" s="4">
-        <v>3.6255124522408456E-2</v>
+        <v>3.6255000000000003E-2</v>
       </c>
       <c r="L86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5598,34 +5554,34 @@
         <v>14</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="E87" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="H87" s="3">
         <v>0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="J87" s="3">
         <v>2</v>
       </c>
       <c r="K87" s="4">
-        <v>8.9517500671381263E-3</v>
+        <v>8.9519999999999999E-3</v>
       </c>
       <c r="L87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5639,16 +5595,16 @@
         <v>14</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="E88" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="H88" s="3">
         <v>0</v>
@@ -5660,13 +5616,13 @@
         <v>5</v>
       </c>
       <c r="K88" s="4">
-        <v>2.2379375167845314E-2</v>
+        <v>2.2379E-2</v>
       </c>
       <c r="L88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5680,34 +5636,34 @@
         <v>14</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="J89" s="3">
         <v>5</v>
       </c>
       <c r="K89" s="4">
-        <v>2.2379375167845314E-2</v>
+        <v>2.2379E-2</v>
       </c>
       <c r="L89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5721,34 +5677,34 @@
         <v>14</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="H90" s="3">
         <v>0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J90" s="3">
         <v>4</v>
       </c>
       <c r="K90" s="4">
-        <v>1.7903500134276253E-2</v>
+        <v>1.7904E-2</v>
       </c>
       <c r="L90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>407</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5762,34 +5718,34 @@
         <v>14</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="J91" s="3">
         <v>10</v>
       </c>
       <c r="K91" s="4">
-        <v>4.4758750335690628E-2</v>
+        <v>4.4759E-2</v>
       </c>
       <c r="L91" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5803,37 +5759,37 @@
         <v>14</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>412</v>
+        <v>354</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>413</v>
+        <v>355</v>
       </c>
       <c r="H92" s="3">
         <v>0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>414</v>
+        <v>356</v>
       </c>
       <c r="J92" s="3">
         <v>18</v>
       </c>
       <c r="K92" s="4">
-        <v>8.0565750604243119E-2</v>
+        <v>8.0565999999999999E-2</v>
       </c>
       <c r="L92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>13</v>
       </c>
@@ -5844,34 +5800,34 @@
         <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>416</v>
+        <v>357</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>418</v>
+        <v>359</v>
       </c>
       <c r="H93" s="3">
         <v>0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>419</v>
+        <v>360</v>
       </c>
       <c r="J93" s="3">
         <v>120</v>
       </c>
       <c r="K93" s="4">
-        <v>0.39087947882736157</v>
+        <v>0.39087899999999998</v>
       </c>
       <c r="L93" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>420</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5885,34 +5841,34 @@
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>422</v>
+        <v>363</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="J94" s="3">
         <v>4</v>
       </c>
       <c r="K94" s="4">
-        <v>2.6734393797620638E-2</v>
+        <v>2.6734000000000001E-2</v>
       </c>
       <c r="L94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>424</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5926,34 +5882,34 @@
         <v>14</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="H95" s="3">
         <v>0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="J95" s="3">
         <v>4</v>
       </c>
       <c r="K95" s="4">
-        <v>2.6734393797620638E-2</v>
+        <v>2.6734000000000001E-2</v>
       </c>
       <c r="L95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>428</v>
+        <v>365</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -5967,37 +5923,37 @@
         <v>14</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>429</v>
+        <v>369</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>430</v>
+        <v>370</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="J96" s="3">
         <v>3</v>
       </c>
       <c r="K96" s="4">
-        <v>2.005079534821548E-2</v>
+        <v>2.0050999999999999E-2</v>
       </c>
       <c r="L96" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>13</v>
       </c>
@@ -6008,37 +5964,37 @@
         <v>14</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>433</v>
+        <v>373</v>
       </c>
       <c r="H97" s="3">
         <v>0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>434</v>
+        <v>374</v>
       </c>
       <c r="J97" s="3">
         <v>10</v>
       </c>
       <c r="K97" s="4">
-        <v>6.6835984494051592E-2</v>
+        <v>6.6836000000000007E-2</v>
       </c>
       <c r="L97" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>13</v>
       </c>
@@ -6049,37 +6005,37 @@
         <v>14</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>421</v>
+        <v>362</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>436</v>
+        <v>375</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="H98" s="3">
         <v>0</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="J98" s="3">
         <v>117</v>
       </c>
       <c r="K98" s="4">
-        <v>0.7819810185804037</v>
+        <v>0.78198100000000004</v>
       </c>
       <c r="L98" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" ht="56" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="60" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>13</v>
       </c>
@@ -6090,34 +6046,34 @@
         <v>14</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>441</v>
+        <v>380</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="H99" s="3">
         <v>0</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>443</v>
+        <v>382</v>
       </c>
       <c r="J99" s="3">
         <v>148</v>
       </c>
       <c r="K99" s="4">
-        <v>0.29479135544268498</v>
+        <v>0.29479100000000003</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>444</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6131,34 +6087,34 @@
         <v>14</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="J100" s="3">
         <v>2</v>
       </c>
       <c r="K100" s="4">
-        <v>5.4045289952980597E-3</v>
+        <v>5.4050000000000001E-3</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6172,34 +6128,34 @@
         <v>14</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>451</v>
+        <v>389</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>452</v>
+        <v>390</v>
       </c>
       <c r="J101" s="3">
         <v>4</v>
       </c>
       <c r="K101" s="4">
-        <v>1.0809057990596119E-2</v>
+        <v>1.0808999999999999E-2</v>
       </c>
       <c r="L101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>453</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6213,34 +6169,34 @@
         <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="J102" s="3">
         <v>15</v>
       </c>
       <c r="K102" s="4">
-        <v>4.0533967464735449E-2</v>
+        <v>4.0534000000000001E-2</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>457</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6254,34 +6210,34 @@
         <v>14</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>459</v>
+        <v>395</v>
       </c>
       <c r="H103" s="3">
         <v>0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="J103" s="3">
         <v>17</v>
       </c>
       <c r="K103" s="4">
-        <v>4.5938496460033507E-2</v>
+        <v>4.5938E-2</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>461</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6295,34 +6251,34 @@
         <v>14</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>462</v>
+        <v>397</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>463</v>
+        <v>398</v>
       </c>
       <c r="H104" s="3">
         <v>0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>464</v>
+        <v>399</v>
       </c>
       <c r="J104" s="3">
         <v>7</v>
       </c>
       <c r="K104" s="4">
-        <v>1.8915851483543206E-2</v>
+        <v>1.8915999999999999E-2</v>
       </c>
       <c r="L104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>465</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6336,34 +6292,34 @@
         <v>14</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="H105" s="3">
         <v>0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>468</v>
+        <v>402</v>
       </c>
       <c r="J105" s="3">
         <v>5</v>
       </c>
       <c r="K105" s="4">
-        <v>1.3511322488245148E-2</v>
+        <v>1.3511E-2</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>469</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6377,34 +6333,34 @@
         <v>14</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="H106" s="3">
         <v>0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>472</v>
+        <v>405</v>
       </c>
       <c r="J106" s="3">
         <v>15</v>
       </c>
       <c r="K106" s="4">
-        <v>4.0533967464735449E-2</v>
+        <v>4.0534000000000001E-2</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>473</v>
+        <v>406</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6418,34 +6374,34 @@
         <v>14</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>474</v>
+        <v>407</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>475</v>
+        <v>408</v>
       </c>
       <c r="H107" s="3">
         <v>0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>476</v>
+        <v>409</v>
       </c>
       <c r="J107" s="3">
         <v>9</v>
       </c>
       <c r="K107" s="4">
-        <v>2.4320380478841268E-2</v>
+        <v>2.4320000000000001E-2</v>
       </c>
       <c r="L107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>477</v>
+        <v>406</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6459,34 +6415,34 @@
         <v>14</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
       <c r="H108" s="3">
         <v>0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>480</v>
+        <v>412</v>
       </c>
       <c r="J108" s="3">
         <v>11</v>
       </c>
       <c r="K108" s="4">
-        <v>2.9724909474139329E-2</v>
+        <v>2.9725000000000001E-2</v>
       </c>
       <c r="L108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>481</v>
+        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6500,34 +6456,34 @@
         <v>14</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>482</v>
+        <v>413</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>483</v>
+        <v>414</v>
       </c>
       <c r="H109" s="3">
         <v>0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>484</v>
+        <v>415</v>
       </c>
       <c r="J109" s="3">
         <v>12</v>
       </c>
       <c r="K109" s="4">
-        <v>3.2427173971788355E-2</v>
+        <v>3.2426999999999997E-2</v>
       </c>
       <c r="L109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>485</v>
+        <v>406</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6541,34 +6497,34 @@
         <v>14</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>486</v>
+        <v>416</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="H110" s="3">
         <v>0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="J110" s="3">
         <v>9</v>
       </c>
       <c r="K110" s="4">
-        <v>2.4320380478841268E-2</v>
+        <v>2.4320000000000001E-2</v>
       </c>
       <c r="L110" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>488</v>
+        <v>406</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6582,34 +6538,34 @@
         <v>14</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>489</v>
+        <v>418</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>490</v>
+        <v>419</v>
       </c>
       <c r="H111" s="3">
         <v>0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>491</v>
+        <v>420</v>
       </c>
       <c r="J111" s="3">
         <v>10</v>
       </c>
       <c r="K111" s="4">
-        <v>2.7022644976490297E-2</v>
+        <v>2.7022999999999998E-2</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>492</v>
+        <v>406</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6623,34 +6579,34 @@
         <v>14</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>494</v>
+        <v>422</v>
       </c>
       <c r="H112" s="3">
         <v>0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>495</v>
+        <v>423</v>
       </c>
       <c r="J112" s="3">
         <v>11</v>
       </c>
       <c r="K112" s="4">
-        <v>2.9724909474139329E-2</v>
+        <v>2.9725000000000001E-2</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>496</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6664,34 +6620,34 @@
         <v>14</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>497</v>
+        <v>424</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>498</v>
+        <v>425</v>
       </c>
       <c r="H113" s="3">
         <v>0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="J113" s="3">
         <v>13</v>
       </c>
       <c r="K113" s="4">
-        <v>3.5129438469437391E-2</v>
+        <v>3.5129000000000001E-2</v>
       </c>
       <c r="L113" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>499</v>
+        <v>406</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6705,37 +6661,37 @@
         <v>14</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>445</v>
+        <v>384</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="H114" s="3">
         <v>0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="J114" s="3">
         <v>12</v>
       </c>
       <c r="K114" s="4">
-        <v>3.2427173971788355E-2</v>
+        <v>3.2426999999999997E-2</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
@@ -6746,37 +6702,37 @@
         <v>14</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="H115" s="3">
         <v>0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="J115" s="3">
         <v>90</v>
       </c>
       <c r="K115" s="4">
-        <v>0.30225685115529288</v>
+        <v>0.302257</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="28" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
@@ -6787,37 +6743,37 @@
         <v>14</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="H116" s="3">
         <v>0</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="J116" s="3">
         <v>81</v>
       </c>
       <c r="K116" s="4">
-        <v>0.46351931330472107</v>
+        <v>0.46351900000000001</v>
       </c>
       <c r="L116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" ht="42" x14ac:dyDescent="0.2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
@@ -6828,34 +6784,34 @@
         <v>14</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>513</v>
+        <v>439</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="H117" s="3">
         <v>0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="J117" s="3">
         <v>37</v>
       </c>
       <c r="K117" s="4">
-        <v>0.20599042422892772</v>
+        <v>0.20599000000000001</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>516</v>
+        <v>437</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6869,34 +6825,34 @@
         <v>14</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>517</v>
+        <v>442</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>518</v>
+        <v>443</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>519</v>
+        <v>444</v>
       </c>
       <c r="H118" s="3">
         <v>0</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>520</v>
+        <v>445</v>
       </c>
       <c r="J118" s="3">
         <v>6</v>
       </c>
       <c r="K118" s="4">
-        <v>5.1229508196721313E-2</v>
+        <v>5.1229999999999998E-2</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>521</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
@@ -6910,34 +6866,1059 @@
         <v>14</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>517</v>
+        <v>442</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="H119" s="3">
         <v>0</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>522</v>
+        <v>447</v>
       </c>
       <c r="J119" s="3">
         <v>13</v>
       </c>
       <c r="K119" s="4">
-        <v>0.11099726775956284</v>
+        <v>0.110997</v>
       </c>
       <c r="L119" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>523</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="J120" s="3">
+        <v>7</v>
+      </c>
+      <c r="K120" s="4">
+        <v>4.5794000000000001E-2</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="J121" s="3">
+        <v>5</v>
+      </c>
+      <c r="K121" s="4">
+        <v>2.2379E-2</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M121" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H122" s="3">
+        <v>0</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J122" s="3">
+        <v>10</v>
+      </c>
+      <c r="K122" s="4">
+        <v>4.4759E-2</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H123" s="3">
+        <v>0</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J123" s="3">
+        <v>9</v>
+      </c>
+      <c r="K123" s="4">
+        <v>4.0282999999999999E-2</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J124" s="3">
+        <v>9</v>
+      </c>
+      <c r="K124" s="4">
+        <v>4.0282999999999999E-2</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M124" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J125" s="3">
+        <v>14</v>
+      </c>
+      <c r="K125" s="4">
+        <v>6.2661999999999995E-2</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J126" s="3">
+        <v>8</v>
+      </c>
+      <c r="K126" s="4">
+        <v>3.5806999999999999E-2</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M126" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J127" s="3">
+        <v>12</v>
+      </c>
+      <c r="K127" s="4">
+        <v>5.3711000000000002E-2</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M127" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H128" s="3">
+        <v>0</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J128" s="3">
+        <v>2</v>
+      </c>
+      <c r="K128" s="4">
+        <v>8.9519999999999999E-3</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M128" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J129" s="3">
+        <v>2</v>
+      </c>
+      <c r="K129" s="4">
+        <v>8.9519999999999999E-3</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M129" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J130" s="3">
+        <v>4</v>
+      </c>
+      <c r="K130" s="4">
+        <v>1.7904E-2</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J131" s="3">
+        <v>3</v>
+      </c>
+      <c r="K131" s="4">
+        <v>1.3428000000000001E-2</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J132" s="3">
+        <v>1</v>
+      </c>
+      <c r="K132" s="4">
+        <v>4.4759999999999999E-3</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J133" s="3">
+        <v>1</v>
+      </c>
+      <c r="K133" s="4">
+        <v>4.4759999999999999E-3</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="J134" s="3">
+        <v>10</v>
+      </c>
+      <c r="K134" s="4">
+        <v>4.4759E-2</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="J135" s="3">
+        <v>9</v>
+      </c>
+      <c r="K135" s="4">
+        <v>4.0282999999999999E-2</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H136" s="3">
+        <v>0</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J136" s="3">
+        <v>4</v>
+      </c>
+      <c r="K136" s="4">
+        <v>1.7904E-2</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="J137" s="3">
+        <v>9</v>
+      </c>
+      <c r="K137" s="4">
+        <v>4.0282999999999999E-2</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="J138" s="3">
+        <v>3</v>
+      </c>
+      <c r="K138" s="4">
+        <v>1.3428000000000001E-2</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="J139" s="3">
+        <v>14</v>
+      </c>
+      <c r="K139" s="4">
+        <v>6.2661999999999995E-2</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M139" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J140" s="3">
+        <v>4</v>
+      </c>
+      <c r="K140" s="4">
+        <v>1.7904E-2</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M140" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="J141" s="3">
+        <v>8</v>
+      </c>
+      <c r="K141" s="4">
+        <v>3.5806999999999999E-2</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M141" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J142" s="3">
+        <v>2</v>
+      </c>
+      <c r="K142" s="4">
+        <v>8.9519999999999999E-3</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M142" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="J143" s="3">
+        <v>12</v>
+      </c>
+      <c r="K143" s="4">
+        <v>5.3711000000000002E-2</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M143" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="J144" s="3">
+        <v>2</v>
+      </c>
+      <c r="K144" s="4">
+        <v>8.9519999999999999E-3</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/data/coded_segments/md_2_2.xlsx
+++ b/data/coded_segments/md_2_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C0164A-0B71-EF45-A681-7295AFFD0885}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42ABF22-5AC5-7D47-8536-CD88A4939ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="517">
   <si>
     <t>Color</t>
   </si>
@@ -1538,6 +1538,63 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>1: 3713</t>
+  </si>
+  <si>
+    <t>1: 3733</t>
+  </si>
+  <si>
+    <t>Clostridium difficile</t>
+  </si>
+  <si>
+    <t>11/8/18 14:04:00</t>
+  </si>
+  <si>
+    <t>1: 1647</t>
+  </si>
+  <si>
+    <t>1: 1668</t>
+  </si>
+  <si>
+    <t>Nocardia transvalensis</t>
+  </si>
+  <si>
+    <t>11/8/18 14:05:00</t>
+  </si>
+  <si>
+    <t>1: 1332</t>
+  </si>
+  <si>
+    <t>1: 1336</t>
+  </si>
+  <si>
+    <t>2007.</t>
+  </si>
+  <si>
+    <t>11/12/18 12:31:00</t>
+  </si>
+  <si>
+    <t>3: 1441</t>
+  </si>
+  <si>
+    <t>3: 1447</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>11/12/18 12:32:00</t>
+  </si>
+  <si>
+    <t>3: 1449</t>
+  </si>
+  <si>
+    <t>3: 1452</t>
+  </si>
+  <si>
+    <t>2013</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2059,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7921,6 +7978,211 @@
         <v>493</v>
       </c>
     </row>
+    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J145" s="3">
+        <v>21</v>
+      </c>
+      <c r="K145" s="4">
+        <v>9.3992999999999993E-2</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M145" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="H146" s="3">
+        <v>0</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="J146" s="3">
+        <v>22</v>
+      </c>
+      <c r="K146" s="4">
+        <v>0.149976</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="J147" s="3">
+        <v>5</v>
+      </c>
+      <c r="K147" s="4">
+        <v>2.9302999999999999E-2</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H148" s="3">
+        <v>0</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="J148" s="3">
+        <v>7</v>
+      </c>
+      <c r="K148" s="4">
+        <v>1.8915999999999999E-2</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="J149" s="3">
+        <v>4</v>
+      </c>
+      <c r="K149" s="4">
+        <v>1.0808999999999999E-2</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/md_2_2.xlsx
+++ b/data/coded_segments/md_2_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42ABF22-5AC5-7D47-8536-CD88A4939ED9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1626DA24-CF64-B444-B8D0-BBDD530B57BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="519">
   <si>
     <t>Color</t>
   </si>
@@ -1595,6 +1595,12 @@
   </si>
   <si>
     <t>2013</t>
+  </si>
+  <si>
+    <t>chen</t>
+  </si>
+  <si>
+    <t>1/29/19 16:38:51</t>
   </si>
 </sst>
 </file>
@@ -2059,7 +2065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M149"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8183,6 +8189,47 @@
         <v>513</v>
       </c>
     </row>
+    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J150" s="3">
+        <v>4</v>
+      </c>
+      <c r="K150" s="4">
+        <v>1.7903500134276253E-2</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="M150" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/md_2_2.xlsx
+++ b/data/coded_segments/md_2_2.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB38D62C-FE9B-E344-8A4B-135232988C3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6DB27D-F5EE-6B42-BE03-6360AD56033E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="560" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAXQDA 12" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="532">
   <si>
     <t>Color</t>
   </si>
@@ -85,7 +85,7 @@
     <t>mdualeh</t>
   </si>
   <si>
-    <t>06/18/2018 00:07:00</t>
+    <t>6/18/18 00:07:00</t>
   </si>
   <si>
     <t>13898</t>
@@ -100,7 +100,7 @@
     <t>o</t>
   </si>
   <si>
-    <t>06/18/2018 00:08:00</t>
+    <t>6/18/18 00:08:00</t>
   </si>
   <si>
     <t>14100</t>
@@ -118,7 +118,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>06/18/2018 00:36:00</t>
+    <t>6/18/18 00:36:00</t>
   </si>
   <si>
     <t>Patient:Sex</t>
@@ -158,7 +158,7 @@
     <t>February</t>
   </si>
   <si>
-    <t>06/18/2018 00:37:00</t>
+    <t>6/18/18 00:37:00</t>
   </si>
   <si>
     <t>Event year</t>
@@ -185,7 +185,7 @@
     <t>Successful treatment</t>
   </si>
   <si>
-    <t>06/18/2018 01:01:00</t>
+    <t>6/18/18 01:01:00</t>
   </si>
   <si>
     <t>14500</t>
@@ -203,7 +203,7 @@
     <t>Outbreak of a nove</t>
   </si>
   <si>
-    <t>06/18/2018 01:02:00</t>
+    <t>6/18/18 01:02:00</t>
   </si>
   <si>
     <t>14509</t>
@@ -232,7 +232,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>06/18/2018 01:15:00</t>
+    <t>6/18/18 01:15:00</t>
   </si>
   <si>
     <t>2: 2085</t>
@@ -268,7 +268,7 @@
     <t>Colombian</t>
   </si>
   <si>
-    <t>06/18/2018 01:16:00</t>
+    <t>6/18/18 01:16:00</t>
   </si>
   <si>
     <t>2: 2516</t>
@@ -305,7 +305,7 @@
     <t>rifampin</t>
   </si>
   <si>
-    <t>06/18/2018 01:17:00</t>
+    <t>6/18/18 01:17:00</t>
   </si>
   <si>
     <t>2: 5131</t>
@@ -359,7 +359,7 @@
     <t>levels</t>
   </si>
   <si>
-    <t>06/18/2018 01:18:00</t>
+    <t>6/18/18 01:18:00</t>
   </si>
   <si>
     <t>15066</t>
@@ -386,7 +386,7 @@
     <t>An Irish outbreak</t>
   </si>
   <si>
-    <t>06/18/2018 01:23:00</t>
+    <t>6/18/18 01:23:00</t>
   </si>
   <si>
     <t>15459</t>
@@ -413,7 +413,7 @@
     <t>51</t>
   </si>
   <si>
-    <t>06/18/2018 01:24:00</t>
+    <t>6/18/18 01:24:00</t>
   </si>
   <si>
     <t>1: 2978</t>
@@ -455,7 +455,7 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>06/18/2018 01:30:00</t>
+    <t>6/18/18 01:30:00</t>
   </si>
   <si>
     <t>2: 685</t>
@@ -516,7 +516,7 @@
 Resistant Escheric</t>
   </si>
   <si>
-    <t>06/18/2018 01:31:00</t>
+    <t>6/18/18 01:31:00</t>
   </si>
   <si>
     <t>16225</t>
@@ -545,7 +545,7 @@
 Center</t>
   </si>
   <si>
-    <t>06/18/2018 01:36:00</t>
+    <t>6/18/18 01:36:00</t>
   </si>
   <si>
     <t>2: 1253</t>
@@ -596,7 +596,7 @@
     <t>76</t>
   </si>
   <si>
-    <t>06/18/2018 01:37:00</t>
+    <t>6/18/18 01:37:00</t>
   </si>
   <si>
     <t>2: 2854</t>
@@ -674,7 +674,7 @@
     <t>2: 4096</t>
   </si>
   <si>
-    <t>06/18/2018 01:38:00</t>
+    <t>6/18/18 01:38:00</t>
   </si>
   <si>
     <t>16729</t>
@@ -692,7 +692,7 @@
     <t>Letters to the Editor</t>
   </si>
   <si>
-    <t>06/18/2018 01:39:00</t>
+    <t>6/18/18 01:39:00</t>
   </si>
   <si>
     <t>16802</t>
@@ -734,7 +734,7 @@
     <t>S. marcescens</t>
   </si>
   <si>
-    <t>06/18/2018 01:40:00</t>
+    <t>6/18/18 01:40:00</t>
   </si>
   <si>
     <t>1: 3247</t>
@@ -767,7 +767,7 @@
     <t>Introductio</t>
   </si>
   <si>
-    <t>06/18/2018 01:41:00</t>
+    <t>6/18/18 01:41:00</t>
   </si>
   <si>
     <t>18227</t>
@@ -791,7 +791,7 @@
     <t>girl</t>
   </si>
   <si>
-    <t>06/18/2018 01:42:00</t>
+    <t>6/18/18 01:42:00</t>
   </si>
   <si>
     <t>1: 392</t>
@@ -817,7 +817,7 @@
 Burkholderia pseudomallei infection</t>
   </si>
   <si>
-    <t>06/18/2018 09:18:00</t>
+    <t>6/18/18 09:18:00</t>
   </si>
   <si>
     <t>18631</t>
@@ -844,7 +844,7 @@
     <t>Corynebacterium jeikeium</t>
   </si>
   <si>
-    <t>06/18/2018 09:19:00</t>
+    <t>6/18/18 09:19:00</t>
   </si>
   <si>
     <t>1: 234</t>
@@ -865,7 +865,7 @@
     <t>Germany2</t>
   </si>
   <si>
-    <t>06/18/2018 09:21:00</t>
+    <t>6/18/18 09:21:00</t>
   </si>
   <si>
     <t>Bacteria:Strain</t>
@@ -880,7 +880,7 @@
     <t>1087</t>
   </si>
   <si>
-    <t>06/18/2018 09:22:00</t>
+    <t>6/18/18 09:22:00</t>
   </si>
   <si>
     <t>MIC</t>
@@ -904,7 +904,7 @@
     <t>died</t>
   </si>
   <si>
-    <t>06/18/2018 09:23:00</t>
+    <t>6/18/18 09:23:00</t>
   </si>
   <si>
     <t>19004</t>
@@ -928,7 +928,7 @@
     <t>isolates</t>
   </si>
   <si>
-    <t>06/18/2018 09:24:00</t>
+    <t>6/18/18 09:24:00</t>
   </si>
   <si>
     <t>19120</t>
@@ -988,7 +988,7 @@
     <t>Republic of Korea</t>
   </si>
   <si>
-    <t>06/18/2018 09:25:00</t>
+    <t>6/18/18 09:25:00</t>
   </si>
   <si>
     <t>2: 317</t>
@@ -1019,7 +1019,7 @@
 immunocompetent pregnant woman</t>
   </si>
   <si>
-    <t>06/18/2018 09:27:00</t>
+    <t>6/18/18 09:27:00</t>
   </si>
   <si>
     <t>20046</t>
@@ -1035,7 +1035,7 @@
 Enterobacteriaceae: emergence a</t>
   </si>
   <si>
-    <t>06/18/2018 09:28:00</t>
+    <t>6/18/18 09:28:00</t>
   </si>
   <si>
     <t>20146</t>
@@ -1047,7 +1047,7 @@
     <t>Community-ons</t>
   </si>
   <si>
-    <t>06/18/2018 09:34:00</t>
+    <t>6/18/18 09:34:00</t>
   </si>
   <si>
     <t>20339</t>
@@ -1068,7 +1068,7 @@
     <t>1: 1465</t>
   </si>
   <si>
-    <t>06/18/2018 09:35:00</t>
+    <t>6/18/18 09:35:00</t>
   </si>
   <si>
     <t>1: 1596</t>
@@ -1118,7 +1118,7 @@
 cancer and impli</t>
   </si>
   <si>
-    <t>06/18/2018 09:43:00</t>
+    <t>6/18/18 09:43:00</t>
   </si>
   <si>
     <t>21345</t>
@@ -1130,7 +1130,7 @@
     <t xml:space="preserve"> July</t>
   </si>
   <si>
-    <t>06/18/2018 09:44:00</t>
+    <t>6/18/18 09:44:00</t>
   </si>
   <si>
     <t>1: 1492</t>
@@ -1148,7 +1148,7 @@
     <t>1: 1523</t>
   </si>
   <si>
-    <t>06/18/2018 09:45:00</t>
+    <t>6/18/18 09:45:00</t>
   </si>
   <si>
     <t>1: 1532</t>
@@ -1172,7 +1172,7 @@
 2010</t>
   </si>
   <si>
-    <t>06/18/2018 09:53:00</t>
+    <t>6/18/18 09:53:00</t>
   </si>
   <si>
     <t>21988</t>
@@ -1190,7 +1190,7 @@
 method</t>
   </si>
   <si>
-    <t>06/18/2018 09:55:00</t>
+    <t>6/18/18 09:55:00</t>
   </si>
   <si>
     <t>22167</t>
@@ -1259,7 +1259,7 @@
     <t>public hospital</t>
   </si>
   <si>
-    <t>06/18/2018 09:56:00</t>
+    <t>6/18/18 09:56:00</t>
   </si>
   <si>
     <t>3: 1797</t>
@@ -1328,7 +1328,7 @@
     <t>levofloxacin</t>
   </si>
   <si>
-    <t>06/18/2018 09:57:00</t>
+    <t>6/18/18 09:57:00</t>
   </si>
   <si>
     <t>22707</t>
@@ -1341,7 +1341,7 @@
 producing Klebsiella pneumoniae in Ireland</t>
   </si>
   <si>
-    <t>06/18/2018 11:23:00</t>
+    <t>6/18/18 11:23:00</t>
   </si>
   <si>
     <t>23427</t>
@@ -1354,7 +1354,7 @@
 Klebsiella pneumonia</t>
   </si>
   <si>
-    <t>06/18/2018 11:24:00</t>
+    <t>6/18/18 11:24:00</t>
   </si>
   <si>
     <t>23496</t>
@@ -1383,13 +1383,13 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>06/18/2018 11:35:00</t>
+    <t>6/18/18 11:35:00</t>
   </si>
   <si>
     <t>Carbapenem re</t>
   </si>
   <si>
-    <t>06/18/2018 11:36:00</t>
+    <t>6/18/18 11:36:00</t>
   </si>
   <si>
     <t>1: 2512</t>
@@ -1404,7 +1404,7 @@
     <t>Sonia</t>
   </si>
   <si>
-    <t>10/29/2018 11:59:00</t>
+    <t>10/29/18 11:59:00</t>
   </si>
   <si>
     <t>1: 3706</t>
@@ -1416,7 +1416,7 @@
     <t>Korea</t>
   </si>
   <si>
-    <t>10/29/2018 12:26:00</t>
+    <t>10/29/18 12:26:00</t>
   </si>
   <si>
     <t>2: 2356</t>
@@ -1428,7 +1428,7 @@
     <t>ampicillin</t>
   </si>
   <si>
-    <t>10/30/2018 15:55:00</t>
+    <t>10/30/18 15:55:00</t>
   </si>
   <si>
     <t>2: 2382</t>
@@ -1474,7 +1474,7 @@
     <t>moxifloxacin</t>
   </si>
   <si>
-    <t>10/30/2018 15:56:00</t>
+    <t>10/30/18 15:56:00</t>
   </si>
   <si>
     <t>2: 2517</t>
@@ -1525,7 +1525,7 @@
     <t>2: 2400</t>
   </si>
   <si>
-    <t>10/30/2018 15:57:00</t>
+    <t>10/30/18 15:57:00</t>
   </si>
   <si>
     <t>C</t>
@@ -1549,7 +1549,7 @@
     <t>Clostridium difficile</t>
   </si>
   <si>
-    <t>11/08/2018 14:04:00</t>
+    <t>11/8/18 14:04:00</t>
   </si>
   <si>
     <t>1: 1647</t>
@@ -1561,7 +1561,7 @@
     <t>Nocardia transvalensis</t>
   </si>
   <si>
-    <t>11/08/2018 14:05:00</t>
+    <t>11/8/18 14:05:00</t>
   </si>
   <si>
     <t>1: 1332</t>
@@ -1573,7 +1573,7 @@
     <t>2007.</t>
   </si>
   <si>
-    <t>11/12/2018 12:31:00</t>
+    <t>11/12/18 12:31:00</t>
   </si>
   <si>
     <t>3: 1441</t>
@@ -1585,7 +1585,7 @@
     <t>October</t>
   </si>
   <si>
-    <t>11/12/2018 12:32:00</t>
+    <t>11/12/18 12:32:00</t>
   </si>
   <si>
     <t>3: 1449</t>
@@ -1600,7 +1600,46 @@
     <t>chen</t>
   </si>
   <si>
-    <t>01/29/2019 16:38:51</t>
+    <t>1/29/19 16:38:51</t>
+  </si>
+  <si>
+    <t>1: 5402</t>
+  </si>
+  <si>
+    <t>1: 5420</t>
+  </si>
+  <si>
+    <t>Sydney Eye Hospital</t>
+  </si>
+  <si>
+    <t>emmamendelsohn</t>
+  </si>
+  <si>
+    <t>8/22/19 14:16:18</t>
+  </si>
+  <si>
+    <t>1: 5423</t>
+  </si>
+  <si>
+    <t>1: 5428</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>8/22/19 14:16:22</t>
+  </si>
+  <si>
+    <t>1: 5431</t>
+  </si>
+  <si>
+    <t>1: 5439</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>8/22/19 14:16:28</t>
   </si>
 </sst>
 </file>
@@ -1615,19 +1654,16 @@
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF909090"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2068,7 +2104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8233,6 +8269,129 @@
         <v>518</v>
       </c>
     </row>
+    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="J151" s="3">
+        <v>19</v>
+      </c>
+      <c r="K151" s="4">
+        <v>0.12952484831958552</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="M151" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="J152" s="3">
+        <v>6</v>
+      </c>
+      <c r="K152" s="4">
+        <v>4.0902583679869112E-2</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="M152" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="J153" s="3">
+        <v>9</v>
+      </c>
+      <c r="K153" s="4">
+        <v>6.1353875519803668E-2</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>531</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/coded_segments/md_2_2.xlsx
+++ b/data/coded_segments/md_2_2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmamendelsohn/r_projects/amr-db/data/coded_segments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\amr-db\data\coded_segments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C6DB27D-F5EE-6B42-BE03-6360AD56033E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="560" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15528" windowHeight="6306"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +84,7 @@
     <t>mdualeh</t>
   </si>
   <si>
-    <t>6/18/18 00:07:00</t>
+    <t>6/18/2018 00:07:00</t>
   </si>
   <si>
     <t>13898</t>
@@ -100,7 +99,7 @@
     <t>o</t>
   </si>
   <si>
-    <t>6/18/18 00:08:00</t>
+    <t>6/18/2018 00:08:00</t>
   </si>
   <si>
     <t>14100</t>
@@ -118,7 +117,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>6/18/18 00:36:00</t>
+    <t>6/18/2018 00:36:00</t>
   </si>
   <si>
     <t>Patient:Sex</t>
@@ -158,7 +157,7 @@
     <t>February</t>
   </si>
   <si>
-    <t>6/18/18 00:37:00</t>
+    <t>6/18/2018 00:37:00</t>
   </si>
   <si>
     <t>Event year</t>
@@ -185,7 +184,7 @@
     <t>Successful treatment</t>
   </si>
   <si>
-    <t>6/18/18 01:01:00</t>
+    <t>6/18/2018 01:01:00</t>
   </si>
   <si>
     <t>14500</t>
@@ -203,7 +202,7 @@
     <t>Outbreak of a nove</t>
   </si>
   <si>
-    <t>6/18/18 01:02:00</t>
+    <t>6/18/2018 01:02:00</t>
   </si>
   <si>
     <t>14509</t>
@@ -232,7 +231,7 @@
     <t>15</t>
   </si>
   <si>
-    <t>6/18/18 01:15:00</t>
+    <t>6/18/2018 01:15:00</t>
   </si>
   <si>
     <t>2: 2085</t>
@@ -268,7 +267,7 @@
     <t>Colombian</t>
   </si>
   <si>
-    <t>6/18/18 01:16:00</t>
+    <t>6/18/2018 01:16:00</t>
   </si>
   <si>
     <t>2: 2516</t>
@@ -305,7 +304,7 @@
     <t>rifampin</t>
   </si>
   <si>
-    <t>6/18/18 01:17:00</t>
+    <t>6/18/2018 01:17:00</t>
   </si>
   <si>
     <t>2: 5131</t>
@@ -359,7 +358,7 @@
     <t>levels</t>
   </si>
   <si>
-    <t>6/18/18 01:18:00</t>
+    <t>6/18/2018 01:18:00</t>
   </si>
   <si>
     <t>15066</t>
@@ -386,7 +385,7 @@
     <t>An Irish outbreak</t>
   </si>
   <si>
-    <t>6/18/18 01:23:00</t>
+    <t>6/18/2018 01:23:00</t>
   </si>
   <si>
     <t>15459</t>
@@ -413,7 +412,7 @@
     <t>51</t>
   </si>
   <si>
-    <t>6/18/18 01:24:00</t>
+    <t>6/18/2018 01:24:00</t>
   </si>
   <si>
     <t>1: 2978</t>
@@ -455,7 +454,7 @@
     <t>amikacin</t>
   </si>
   <si>
-    <t>6/18/18 01:30:00</t>
+    <t>6/18/2018 01:30:00</t>
   </si>
   <si>
     <t>2: 685</t>
@@ -516,7 +515,7 @@
 Resistant Escheric</t>
   </si>
   <si>
-    <t>6/18/18 01:31:00</t>
+    <t>6/18/2018 01:31:00</t>
   </si>
   <si>
     <t>16225</t>
@@ -545,7 +544,7 @@
 Center</t>
   </si>
   <si>
-    <t>6/18/18 01:36:00</t>
+    <t>6/18/2018 01:36:00</t>
   </si>
   <si>
     <t>2: 1253</t>
@@ -596,7 +595,7 @@
     <t>76</t>
   </si>
   <si>
-    <t>6/18/18 01:37:00</t>
+    <t>6/18/2018 01:37:00</t>
   </si>
   <si>
     <t>2: 2854</t>
@@ -674,7 +673,7 @@
     <t>2: 4096</t>
   </si>
   <si>
-    <t>6/18/18 01:38:00</t>
+    <t>6/18/2018 01:38:00</t>
   </si>
   <si>
     <t>16729</t>
@@ -692,7 +691,7 @@
     <t>Letters to the Editor</t>
   </si>
   <si>
-    <t>6/18/18 01:39:00</t>
+    <t>6/18/2018 01:39:00</t>
   </si>
   <si>
     <t>16802</t>
@@ -734,7 +733,7 @@
     <t>S. marcescens</t>
   </si>
   <si>
-    <t>6/18/18 01:40:00</t>
+    <t>6/18/2018 01:40:00</t>
   </si>
   <si>
     <t>1: 3247</t>
@@ -767,7 +766,7 @@
     <t>Introductio</t>
   </si>
   <si>
-    <t>6/18/18 01:41:00</t>
+    <t>6/18/2018 01:41:00</t>
   </si>
   <si>
     <t>18227</t>
@@ -791,7 +790,7 @@
     <t>girl</t>
   </si>
   <si>
-    <t>6/18/18 01:42:00</t>
+    <t>6/18/2018 01:42:00</t>
   </si>
   <si>
     <t>1: 392</t>
@@ -817,7 +816,7 @@
 Burkholderia pseudomallei infection</t>
   </si>
   <si>
-    <t>6/18/18 09:18:00</t>
+    <t>6/18/2018 09:18:00</t>
   </si>
   <si>
     <t>18631</t>
@@ -844,7 +843,7 @@
     <t>Corynebacterium jeikeium</t>
   </si>
   <si>
-    <t>6/18/18 09:19:00</t>
+    <t>6/18/2018 09:19:00</t>
   </si>
   <si>
     <t>1: 234</t>
@@ -865,7 +864,7 @@
     <t>Germany2</t>
   </si>
   <si>
-    <t>6/18/18 09:21:00</t>
+    <t>6/18/2018 09:21:00</t>
   </si>
   <si>
     <t>Bacteria:Strain</t>
@@ -880,7 +879,7 @@
     <t>1087</t>
   </si>
   <si>
-    <t>6/18/18 09:22:00</t>
+    <t>6/18/2018 09:22:00</t>
   </si>
   <si>
     <t>MIC</t>
@@ -904,7 +903,7 @@
     <t>died</t>
   </si>
   <si>
-    <t>6/18/18 09:23:00</t>
+    <t>6/18/2018 09:23:00</t>
   </si>
   <si>
     <t>19004</t>
@@ -928,7 +927,7 @@
     <t>isolates</t>
   </si>
   <si>
-    <t>6/18/18 09:24:00</t>
+    <t>6/18/2018 09:24:00</t>
   </si>
   <si>
     <t>19120</t>
@@ -988,7 +987,7 @@
     <t>Republic of Korea</t>
   </si>
   <si>
-    <t>6/18/18 09:25:00</t>
+    <t>6/18/2018 09:25:00</t>
   </si>
   <si>
     <t>2: 317</t>
@@ -1019,7 +1018,7 @@
 immunocompetent pregnant woman</t>
   </si>
   <si>
-    <t>6/18/18 09:27:00</t>
+    <t>6/18/2018 09:27:00</t>
   </si>
   <si>
     <t>20046</t>
@@ -1035,7 +1034,7 @@
 Enterobacteriaceae: emergence a</t>
   </si>
   <si>
-    <t>6/18/18 09:28:00</t>
+    <t>6/18/2018 09:28:00</t>
   </si>
   <si>
     <t>20146</t>
@@ -1047,7 +1046,7 @@
     <t>Community-ons</t>
   </si>
   <si>
-    <t>6/18/18 09:34:00</t>
+    <t>6/18/2018 09:34:00</t>
   </si>
   <si>
     <t>20339</t>
@@ -1068,7 +1067,7 @@
     <t>1: 1465</t>
   </si>
   <si>
-    <t>6/18/18 09:35:00</t>
+    <t>6/18/2018 09:35:00</t>
   </si>
   <si>
     <t>1: 1596</t>
@@ -1118,7 +1117,7 @@
 cancer and impli</t>
   </si>
   <si>
-    <t>6/18/18 09:43:00</t>
+    <t>6/18/2018 09:43:00</t>
   </si>
   <si>
     <t>21345</t>
@@ -1130,7 +1129,7 @@
     <t xml:space="preserve"> July</t>
   </si>
   <si>
-    <t>6/18/18 09:44:00</t>
+    <t>6/18/2018 09:44:00</t>
   </si>
   <si>
     <t>1: 1492</t>
@@ -1148,7 +1147,7 @@
     <t>1: 1523</t>
   </si>
   <si>
-    <t>6/18/18 09:45:00</t>
+    <t>6/18/2018 09:45:00</t>
   </si>
   <si>
     <t>1: 1532</t>
@@ -1172,7 +1171,7 @@
 2010</t>
   </si>
   <si>
-    <t>6/18/18 09:53:00</t>
+    <t>6/18/2018 09:53:00</t>
   </si>
   <si>
     <t>21988</t>
@@ -1190,7 +1189,7 @@
 method</t>
   </si>
   <si>
-    <t>6/18/18 09:55:00</t>
+    <t>6/18/2018 09:55:00</t>
   </si>
   <si>
     <t>22167</t>
@@ -1259,7 +1258,7 @@
     <t>public hospital</t>
   </si>
   <si>
-    <t>6/18/18 09:56:00</t>
+    <t>6/18/2018 09:56:00</t>
   </si>
   <si>
     <t>3: 1797</t>
@@ -1328,7 +1327,7 @@
     <t>levofloxacin</t>
   </si>
   <si>
-    <t>6/18/18 09:57:00</t>
+    <t>6/18/2018 09:57:00</t>
   </si>
   <si>
     <t>22707</t>
@@ -1341,7 +1340,7 @@
 producing Klebsiella pneumoniae in Ireland</t>
   </si>
   <si>
-    <t>6/18/18 11:23:00</t>
+    <t>6/18/2018 11:23:00</t>
   </si>
   <si>
     <t>23427</t>
@@ -1354,7 +1353,7 @@
 Klebsiella pneumonia</t>
   </si>
   <si>
-    <t>6/18/18 11:24:00</t>
+    <t>6/18/2018 11:24:00</t>
   </si>
   <si>
     <t>23496</t>
@@ -1383,13 +1382,13 @@
     <t>Taiwan</t>
   </si>
   <si>
-    <t>6/18/18 11:35:00</t>
+    <t>6/18/2018 11:35:00</t>
   </si>
   <si>
     <t>Carbapenem re</t>
   </si>
   <si>
-    <t>6/18/18 11:36:00</t>
+    <t>6/18/2018 11:36:00</t>
   </si>
   <si>
     <t>1: 2512</t>
@@ -1404,7 +1403,7 @@
     <t>Sonia</t>
   </si>
   <si>
-    <t>10/29/18 11:59:00</t>
+    <t>10/29/2018 11:59:00</t>
   </si>
   <si>
     <t>1: 3706</t>
@@ -1416,7 +1415,7 @@
     <t>Korea</t>
   </si>
   <si>
-    <t>10/29/18 12:26:00</t>
+    <t>10/29/2018 12:26:00</t>
   </si>
   <si>
     <t>2: 2356</t>
@@ -1428,7 +1427,7 @@
     <t>ampicillin</t>
   </si>
   <si>
-    <t>10/30/18 15:55:00</t>
+    <t>10/30/2018 15:55:00</t>
   </si>
   <si>
     <t>2: 2382</t>
@@ -1474,7 +1473,7 @@
     <t>moxifloxacin</t>
   </si>
   <si>
-    <t>10/30/18 15:56:00</t>
+    <t>10/30/2018 15:56:00</t>
   </si>
   <si>
     <t>2: 2517</t>
@@ -1525,7 +1524,7 @@
     <t>2: 2400</t>
   </si>
   <si>
-    <t>10/30/18 15:57:00</t>
+    <t>10/30/2018 15:57:00</t>
   </si>
   <si>
     <t>C</t>
@@ -1549,7 +1548,7 @@
     <t>Clostridium difficile</t>
   </si>
   <si>
-    <t>11/8/18 14:04:00</t>
+    <t>11/8/2018 14:04:00</t>
   </si>
   <si>
     <t>1: 1647</t>
@@ -1561,7 +1560,7 @@
     <t>Nocardia transvalensis</t>
   </si>
   <si>
-    <t>11/8/18 14:05:00</t>
+    <t>11/8/2018 14:05:00</t>
   </si>
   <si>
     <t>1: 1332</t>
@@ -1573,7 +1572,7 @@
     <t>2007.</t>
   </si>
   <si>
-    <t>11/12/18 12:31:00</t>
+    <t>11/12/2018 12:31:00</t>
   </si>
   <si>
     <t>3: 1441</t>
@@ -1585,7 +1584,7 @@
     <t>October</t>
   </si>
   <si>
-    <t>11/12/18 12:32:00</t>
+    <t>11/12/2018 12:32:00</t>
   </si>
   <si>
     <t>3: 1449</t>
@@ -1600,7 +1599,7 @@
     <t>chen</t>
   </si>
   <si>
-    <t>1/29/19 16:38:51</t>
+    <t>1/29/2019 16:38:51</t>
   </si>
   <si>
     <t>1: 5402</t>
@@ -1615,7 +1614,7 @@
     <t>emmamendelsohn</t>
   </si>
   <si>
-    <t>8/22/19 14:16:18</t>
+    <t>8/22/2019 14:16:18</t>
   </si>
   <si>
     <t>1: 5423</t>
@@ -1627,7 +1626,7 @@
     <t>Sydney</t>
   </si>
   <si>
-    <t>8/22/19 14:16:22</t>
+    <t>8/22/2019 14:16:22</t>
   </si>
   <si>
     <t>1: 5431</t>
@@ -1639,14 +1638,14 @@
     <t>Australia</t>
   </si>
   <si>
-    <t>8/22/19 14:16:28</t>
+    <t>8/22/2019 14:16:28</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1824,7 +1823,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1836,7 +1835,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1883,23 +1882,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1935,23 +1917,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2103,23 +2068,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.6640625" customWidth="1"/>
-    <col min="6" max="8" width="22.6640625" customWidth="1"/>
-    <col min="9" max="9" width="50.6640625" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="13" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.68359375" customWidth="1"/>
+    <col min="2" max="4" width="22.68359375" customWidth="1"/>
+    <col min="5" max="5" width="50.68359375" customWidth="1"/>
+    <col min="6" max="8" width="22.68359375" customWidth="1"/>
+    <col min="9" max="9" width="50.68359375" customWidth="1"/>
+    <col min="10" max="10" width="7.68359375" customWidth="1"/>
+    <col min="11" max="13" width="22.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2160,7 +2125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
@@ -2201,7 +2166,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.6">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
@@ -2242,7 +2207,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="15.6">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -2283,7 +2248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="15.6">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -2324,7 +2289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="25.8">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -2365,7 +2330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="15.6">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -2406,7 +2371,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="15.6">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2447,7 +2412,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="15.6">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2488,7 +2453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="15.6">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2529,7 +2494,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="38.700000000000003">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2570,7 +2535,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="15.6">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -2611,7 +2576,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="15.6">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -2652,7 +2617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="15.6">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2693,7 +2658,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="15.6">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2734,7 +2699,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="25.8">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -2775,7 +2740,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="15.6">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -2816,7 +2781,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="15.6">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2857,7 +2822,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="15.6">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -2898,7 +2863,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.6">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -2939,7 +2904,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="15.6">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -2980,7 +2945,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.6">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -3021,7 +2986,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="15.6">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3062,7 +3027,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="15.6">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -3103,7 +3068,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15.6">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -3144,7 +3109,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15.6">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3185,7 +3150,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="15.6">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -3226,7 +3191,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="15.6">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -3267,7 +3232,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="15.6">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -3308,7 +3273,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="15.6">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -3349,7 +3314,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="15.6">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -3390,7 +3355,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" ht="15.6">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -3431,7 +3396,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="15.6">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -3472,7 +3437,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="15.6">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3478,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="15.6">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
@@ -3554,7 +3519,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="15.6">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -3595,7 +3560,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="25.8">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -3636,7 +3601,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" ht="25.8">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -3677,7 +3642,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="25.8">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -3718,7 +3683,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" ht="15.6">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
@@ -3759,7 +3724,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="15.6">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -3800,7 +3765,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="15.6">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -3841,7 +3806,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="15.6">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
@@ -3882,7 +3847,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="15.6">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -3923,7 +3888,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="15.6">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -3964,7 +3929,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" ht="15.6">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
@@ -4005,7 +3970,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="15.6">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -4046,7 +4011,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="15.6">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -4087,7 +4052,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="15.6">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -4128,7 +4093,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="15.6">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -4169,7 +4134,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="15.6">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -4210,7 +4175,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15.6">
       <c r="A52" s="6" t="s">
         <v>13</v>
       </c>
@@ -4251,7 +4216,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="15.6">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
@@ -4292,7 +4257,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="15.6">
       <c r="A54" s="6" t="s">
         <v>13</v>
       </c>
@@ -4333,7 +4298,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="15.6">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -4374,7 +4339,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="15.6">
       <c r="A56" s="6" t="s">
         <v>13</v>
       </c>
@@ -4415,7 +4380,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="15.6">
       <c r="A57" s="6" t="s">
         <v>13</v>
       </c>
@@ -4456,7 +4421,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="15.6">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -4497,7 +4462,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="15.6">
       <c r="A59" s="6" t="s">
         <v>13</v>
       </c>
@@ -4538,7 +4503,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="15.6">
       <c r="A60" s="6" t="s">
         <v>13</v>
       </c>
@@ -4579,7 +4544,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="15.6">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
@@ -4620,7 +4585,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="15.6">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -4661,7 +4626,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="15.6">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -4702,7 +4667,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="25.8">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -4743,7 +4708,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="25.8">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -4784,7 +4749,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="15.6">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -4825,7 +4790,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="15.6">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -4866,7 +4831,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="15.6">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -4907,7 +4872,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="15.6">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -4948,7 +4913,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="15.6">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -4989,7 +4954,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="15.6">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -5030,7 +4995,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="15.6">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -5071,7 +5036,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="15.6">
       <c r="A73" s="6" t="s">
         <v>13</v>
       </c>
@@ -5112,7 +5077,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="15.6">
       <c r="A74" s="6" t="s">
         <v>13</v>
       </c>
@@ -5153,7 +5118,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="15.6">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -5194,7 +5159,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="15.6">
       <c r="A76" s="6" t="s">
         <v>13</v>
       </c>
@@ -5235,7 +5200,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="15.6">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -5276,7 +5241,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="15.6">
       <c r="A78" s="6" t="s">
         <v>13</v>
       </c>
@@ -5317,7 +5282,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="15.6">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -5358,7 +5323,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="15.6">
       <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
@@ -5399,7 +5364,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="15.6">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
@@ -5440,7 +5405,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="15.6">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -5481,7 +5446,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="15.6">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
@@ -5522,7 +5487,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="25.8">
       <c r="A84" s="6" t="s">
         <v>13</v>
       </c>
@@ -5563,7 +5528,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="25.8">
       <c r="A85" s="6" t="s">
         <v>13</v>
       </c>
@@ -5604,7 +5569,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="15.6">
       <c r="A86" s="6" t="s">
         <v>13</v>
       </c>
@@ -5645,7 +5610,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="15.6">
       <c r="A87" s="6" t="s">
         <v>13</v>
       </c>
@@ -5686,7 +5651,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="15.6">
       <c r="A88" s="6" t="s">
         <v>13</v>
       </c>
@@ -5727,7 +5692,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="15.6">
       <c r="A89" s="6" t="s">
         <v>13</v>
       </c>
@@ -5768,7 +5733,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="15.6">
       <c r="A90" s="6" t="s">
         <v>13</v>
       </c>
@@ -5809,7 +5774,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="15.6">
       <c r="A91" s="6" t="s">
         <v>13</v>
       </c>
@@ -5850,7 +5815,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="15.6">
       <c r="A92" s="6" t="s">
         <v>13</v>
       </c>
@@ -5891,7 +5856,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="38.700000000000003">
       <c r="A93" s="6" t="s">
         <v>13</v>
       </c>
@@ -5932,7 +5897,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="15.6">
       <c r="A94" s="6" t="s">
         <v>13</v>
       </c>
@@ -5973,7 +5938,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="15.6">
       <c r="A95" s="6" t="s">
         <v>13</v>
       </c>
@@ -6014,7 +5979,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="15.6">
       <c r="A96" s="6" t="s">
         <v>13</v>
       </c>
@@ -6055,7 +6020,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="25.8">
       <c r="A97" s="6" t="s">
         <v>13</v>
       </c>
@@ -6096,7 +6061,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="38.700000000000003">
       <c r="A98" s="6" t="s">
         <v>13</v>
       </c>
@@ -6137,7 +6102,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="60" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="51.6">
       <c r="A99" s="6" t="s">
         <v>13</v>
       </c>
@@ -6178,7 +6143,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="15.6">
       <c r="A100" s="6" t="s">
         <v>13</v>
       </c>
@@ -6219,7 +6184,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="15.6">
       <c r="A101" s="6" t="s">
         <v>13</v>
       </c>
@@ -6260,7 +6225,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="15.6">
       <c r="A102" s="6" t="s">
         <v>13</v>
       </c>
@@ -6301,7 +6266,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" ht="15.6">
       <c r="A103" s="6" t="s">
         <v>13</v>
       </c>
@@ -6342,7 +6307,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" ht="15.6">
       <c r="A104" s="6" t="s">
         <v>13</v>
       </c>
@@ -6383,7 +6348,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" ht="15.6">
       <c r="A105" s="6" t="s">
         <v>13</v>
       </c>
@@ -6424,7 +6389,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" ht="15.6">
       <c r="A106" s="6" t="s">
         <v>13</v>
       </c>
@@ -6465,7 +6430,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" ht="15.6">
       <c r="A107" s="6" t="s">
         <v>13</v>
       </c>
@@ -6506,7 +6471,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" ht="15.6">
       <c r="A108" s="6" t="s">
         <v>13</v>
       </c>
@@ -6547,7 +6512,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" ht="15.6">
       <c r="A109" s="6" t="s">
         <v>13</v>
       </c>
@@ -6588,7 +6553,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="15.6">
       <c r="A110" s="6" t="s">
         <v>13</v>
       </c>
@@ -6629,7 +6594,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="15.6">
       <c r="A111" s="6" t="s">
         <v>13</v>
       </c>
@@ -6670,7 +6635,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" ht="15.6">
       <c r="A112" s="6" t="s">
         <v>13</v>
       </c>
@@ -6711,7 +6676,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" ht="15.6">
       <c r="A113" s="6" t="s">
         <v>13</v>
       </c>
@@ -6752,7 +6717,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" ht="15.6">
       <c r="A114" s="6" t="s">
         <v>13</v>
       </c>
@@ -6793,7 +6758,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" ht="25.8">
       <c r="A115" s="6" t="s">
         <v>13</v>
       </c>
@@ -6834,7 +6799,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" ht="25.8">
       <c r="A116" s="6" t="s">
         <v>13</v>
       </c>
@@ -6875,7 +6840,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" ht="38.700000000000003">
       <c r="A117" s="6" t="s">
         <v>13</v>
       </c>
@@ -6916,7 +6881,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" ht="15.6">
       <c r="A118" s="6" t="s">
         <v>13</v>
       </c>
@@ -6957,7 +6922,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" ht="15.6">
       <c r="A119" s="6" t="s">
         <v>13</v>
       </c>
@@ -6998,7 +6963,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" ht="15.6">
       <c r="A120" s="6" t="s">
         <v>13</v>
       </c>
@@ -7039,7 +7004,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" ht="15.6">
       <c r="A121" s="6" t="s">
         <v>13</v>
       </c>
@@ -7080,7 +7045,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" ht="15.6">
       <c r="A122" s="6" t="s">
         <v>13</v>
       </c>
@@ -7121,7 +7086,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" ht="15.6">
       <c r="A123" s="6" t="s">
         <v>13</v>
       </c>
@@ -7162,7 +7127,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" ht="15.6">
       <c r="A124" s="6" t="s">
         <v>13</v>
       </c>
@@ -7203,7 +7168,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" ht="25.8">
       <c r="A125" s="6" t="s">
         <v>13</v>
       </c>
@@ -7244,7 +7209,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" ht="15.6">
       <c r="A126" s="6" t="s">
         <v>13</v>
       </c>
@@ -7285,7 +7250,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" ht="15.6">
       <c r="A127" s="6" t="s">
         <v>13</v>
       </c>
@@ -7326,7 +7291,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" ht="15.6">
       <c r="A128" s="6" t="s">
         <v>13</v>
       </c>
@@ -7367,7 +7332,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" ht="15.6">
       <c r="A129" s="6" t="s">
         <v>13</v>
       </c>
@@ -7408,7 +7373,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" ht="15.6">
       <c r="A130" s="6" t="s">
         <v>13</v>
       </c>
@@ -7449,7 +7414,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" ht="15.6">
       <c r="A131" s="6" t="s">
         <v>13</v>
       </c>
@@ -7490,7 +7455,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" ht="15.6">
       <c r="A132" s="6" t="s">
         <v>13</v>
       </c>
@@ -7531,7 +7496,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" ht="15.6">
       <c r="A133" s="6" t="s">
         <v>13</v>
       </c>
@@ -7572,7 +7537,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" ht="15.6">
       <c r="A134" s="6" t="s">
         <v>13</v>
       </c>
@@ -7613,7 +7578,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" ht="15.6">
       <c r="A135" s="6" t="s">
         <v>13</v>
       </c>
@@ -7654,7 +7619,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" ht="15.6">
       <c r="A136" s="6" t="s">
         <v>13</v>
       </c>
@@ -7695,7 +7660,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" ht="15.6">
       <c r="A137" s="6" t="s">
         <v>13</v>
       </c>
@@ -7736,7 +7701,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" ht="15.6">
       <c r="A138" s="6" t="s">
         <v>13</v>
       </c>
@@ -7777,7 +7742,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="30" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" ht="25.8">
       <c r="A139" s="6" t="s">
         <v>13</v>
       </c>
@@ -7818,7 +7783,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" ht="15.6">
       <c r="A140" s="6" t="s">
         <v>13</v>
       </c>
@@ -7859,7 +7824,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" ht="15.6">
       <c r="A141" s="6" t="s">
         <v>13</v>
       </c>
@@ -7900,7 +7865,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" ht="15.6">
       <c r="A142" s="6" t="s">
         <v>13</v>
       </c>
@@ -7941,7 +7906,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" ht="15.6">
       <c r="A143" s="6" t="s">
         <v>13</v>
       </c>
@@ -7982,7 +7947,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" ht="15.6">
       <c r="A144" s="6" t="s">
         <v>13</v>
       </c>
@@ -8023,7 +7988,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" ht="15.6">
       <c r="A145" s="6" t="s">
         <v>13</v>
       </c>
@@ -8064,7 +8029,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" ht="15.6">
       <c r="A146" s="6" t="s">
         <v>13</v>
       </c>
@@ -8105,7 +8070,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" ht="15.6">
       <c r="A147" s="6" t="s">
         <v>13</v>
       </c>
@@ -8146,7 +8111,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" ht="15.6">
       <c r="A148" s="6" t="s">
         <v>13</v>
       </c>
@@ -8187,7 +8152,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" ht="15.6">
       <c r="A149" s="6" t="s">
         <v>13</v>
       </c>
@@ -8228,7 +8193,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" ht="15.6">
       <c r="A150" s="6" t="s">
         <v>13</v>
       </c>
@@ -8269,7 +8234,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" ht="15.6">
       <c r="A151" s="6" t="s">
         <v>13</v>
       </c>
@@ -8310,7 +8275,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" ht="15.6">
       <c r="A152" s="6" t="s">
         <v>13</v>
       </c>
@@ -8351,7 +8316,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" ht="15.6">
       <c r="A153" s="6" t="s">
         <v>13</v>
       </c>
